--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.9</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.8</v>
@@ -3535,7 +3535,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.8</v>
@@ -3971,7 +3971,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.7</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR28" t="n">
         <v>1.47</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.44</v>
@@ -7459,7 +7459,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR32" t="n">
         <v>2.42</v>
@@ -7674,10 +7674,10 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR33" t="n">
         <v>2.3</v>
@@ -10290,10 +10290,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR45" t="n">
         <v>1.68</v>
@@ -10508,7 +10508,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.3</v>
@@ -10726,10 +10726,10 @@
         <v>0.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR47" t="n">
         <v>1.39</v>
@@ -11601,7 +11601,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR51" t="n">
         <v>1.23</v>
@@ -12906,7 +12906,7 @@
         <v>1.67</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.33</v>
@@ -13560,7 +13560,7 @@
         <v>0.33</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.22</v>
@@ -13996,7 +13996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.3</v>
@@ -14217,7 +14217,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR63" t="n">
         <v>1.4</v>
@@ -15307,7 +15307,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR68" t="n">
         <v>1.4</v>
@@ -16612,7 +16612,7 @@
         <v>2</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.78</v>
@@ -17266,7 +17266,7 @@
         <v>1.25</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.33</v>
@@ -17484,7 +17484,7 @@
         <v>0.4</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.6</v>
@@ -18577,7 +18577,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR83" t="n">
         <v>1.76</v>
@@ -19231,7 +19231,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR86" t="n">
         <v>2.17</v>
@@ -19449,7 +19449,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR87" t="n">
         <v>1.52</v>
@@ -20318,7 +20318,7 @@
         <v>0.83</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ91" t="n">
         <v>1</v>
@@ -20536,7 +20536,7 @@
         <v>0.83</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.9</v>
@@ -20754,7 +20754,7 @@
         <v>0.83</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.6</v>
@@ -22065,7 +22065,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR99" t="n">
         <v>1.28</v>
@@ -22719,7 +22719,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR102" t="n">
         <v>1.76</v>
@@ -23155,7 +23155,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR104" t="n">
         <v>1.64</v>
@@ -23806,7 +23806,7 @@
         <v>2</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.7</v>
@@ -24242,7 +24242,7 @@
         <v>0.71</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.9</v>
@@ -25114,7 +25114,7 @@
         <v>1.14</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.8</v>
@@ -26207,7 +26207,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR118" t="n">
         <v>1.69</v>
@@ -26643,7 +26643,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR120" t="n">
         <v>1.9</v>
@@ -26861,7 +26861,7 @@
         <v>1</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR121" t="n">
         <v>1.4</v>
@@ -27297,7 +27297,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR123" t="n">
         <v>1.83</v>
@@ -27515,7 +27515,7 @@
         <v>1</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR124" t="n">
         <v>1.32</v>
@@ -27733,7 +27733,7 @@
         <v>2</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR125" t="n">
         <v>1.68</v>
@@ -27948,7 +27948,7 @@
         <v>1.75</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.7</v>
@@ -29038,7 +29038,7 @@
         <v>1.29</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.44</v>
@@ -29910,7 +29910,7 @@
         <v>2.25</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.9</v>
@@ -30564,10 +30564,10 @@
         <v>0.57</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR138" t="n">
         <v>1.56</v>
@@ -30782,7 +30782,7 @@
         <v>0.88</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.8</v>
@@ -31003,7 +31003,7 @@
         <v>2</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR140" t="n">
         <v>1.8</v>
@@ -31439,7 +31439,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR142" t="n">
         <v>1.46</v>
@@ -33913,6 +33913,660 @@
       </c>
       <c r="BP153" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>8205654</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>46003.64583333334</v>
+      </c>
+      <c r="F154" t="n">
+        <v>20</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Csikszereda</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>3</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="n">
+        <v>4</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['6', '46', '90+6']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S154" t="n">
+        <v>7</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U154" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V154" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X154" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL154" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP154" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>8205610</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>46004.5</v>
+      </c>
+      <c r="F155" t="n">
+        <v>20</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="R155" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S155" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X155" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>8205589</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>46004.64583333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>20</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Oţelul Galaţi</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>2</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['17', '80']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S156" t="n">
+        <v>4</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V156" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X156" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BL156" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP156" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP156"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.3</v>
@@ -5933,7 +5933,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR25" t="n">
         <v>0.83</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.33</v>
@@ -7023,7 +7023,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR30" t="n">
         <v>1.79</v>
@@ -9854,7 +9854,7 @@
         <v>0.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.6</v>
@@ -10947,7 +10947,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR48" t="n">
         <v>1.49</v>
@@ -13127,7 +13127,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR58" t="n">
         <v>2.09</v>
@@ -16176,7 +16176,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.7</v>
@@ -16615,7 +16615,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR74" t="n">
         <v>1.63</v>
@@ -18792,7 +18792,7 @@
         <v>2.2</v>
       </c>
       <c r="AP84" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.9</v>
@@ -20103,7 +20103,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR90" t="n">
         <v>1.47</v>
@@ -23370,7 +23370,7 @@
         <v>0.8</v>
       </c>
       <c r="AP105" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.8</v>
@@ -24027,7 +24027,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR108" t="n">
         <v>1.5</v>
@@ -26858,7 +26858,7 @@
         <v>1.83</v>
       </c>
       <c r="AP121" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.6</v>
@@ -27512,7 +27512,7 @@
         <v>1.14</v>
       </c>
       <c r="AP124" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.2</v>
@@ -29259,7 +29259,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR132" t="n">
         <v>1.68</v>
@@ -31872,7 +31872,7 @@
         <v>0.25</v>
       </c>
       <c r="AP144" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.22</v>
@@ -34567,6 +34567,224 @@
       </c>
       <c r="BP156" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>8205694</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>46005.4375</v>
+      </c>
+      <c r="F157" t="n">
+        <v>20</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="R157" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S157" t="n">
+        <v>3</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V157" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X157" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.6</v>
@@ -6151,7 +6151,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR26" t="n">
         <v>1.02</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.3</v>
@@ -7020,7 +7020,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.9</v>
@@ -7241,7 +7241,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR31" t="n">
         <v>1.28</v>
@@ -9421,7 +9421,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR41" t="n">
         <v>2.34</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.33</v>
@@ -10075,7 +10075,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR44" t="n">
         <v>1.34</v>
@@ -12688,7 +12688,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.9</v>
@@ -13342,7 +13342,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.6</v>
@@ -13563,7 +13563,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR60" t="n">
         <v>1.5</v>
@@ -13781,7 +13781,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR61" t="n">
         <v>1.38</v>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.8</v>
@@ -16833,7 +16833,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR75" t="n">
         <v>1.53</v>
@@ -17705,7 +17705,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR79" t="n">
         <v>1.4</v>
@@ -17920,7 +17920,7 @@
         <v>0.8</v>
       </c>
       <c r="AP80" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.9</v>
@@ -18138,7 +18138,7 @@
         <v>1.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.7</v>
@@ -20975,7 +20975,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR94" t="n">
         <v>2.04</v>
@@ -21193,7 +21193,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR95" t="n">
         <v>1.43</v>
@@ -22934,7 +22934,7 @@
         <v>2.33</v>
       </c>
       <c r="AP103" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.9</v>
@@ -23152,7 +23152,7 @@
         <v>0.25</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.44</v>
@@ -24463,7 +24463,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR110" t="n">
         <v>1.32</v>
@@ -25332,7 +25332,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.8</v>
@@ -25989,7 +25989,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR117" t="n">
         <v>1.68</v>
@@ -26204,7 +26204,7 @@
         <v>0.83</v>
       </c>
       <c r="AP118" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.2</v>
@@ -27079,7 +27079,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR122" t="n">
         <v>1.16</v>
@@ -27730,7 +27730,7 @@
         <v>0.67</v>
       </c>
       <c r="AP125" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.44</v>
@@ -28602,7 +28602,7 @@
         <v>1.13</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.3</v>
@@ -29041,7 +29041,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR131" t="n">
         <v>1.5</v>
@@ -31000,7 +31000,7 @@
         <v>1.13</v>
       </c>
       <c r="AP140" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.2</v>
@@ -31218,7 +31218,7 @@
         <v>1.13</v>
       </c>
       <c r="AP141" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.33</v>
@@ -31875,7 +31875,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR144" t="n">
         <v>1.33</v>
@@ -32093,7 +32093,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR145" t="n">
         <v>1.24</v>
@@ -34785,6 +34785,442 @@
       </c>
       <c r="BP157" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>8205655</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>46005.53125</v>
+      </c>
+      <c r="F158" t="n">
+        <v>20</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Dinamo Bucureşti</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Metaloglobus</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>4</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>4</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['24', '68', '76', '90+2']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S158" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U158" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X158" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>8205712</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>46005.64583333334</v>
+      </c>
+      <c r="F159" t="n">
+        <v>20</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>2</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['15', '31']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>5</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X159" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -828,6 +828,9 @@
   <si>
     <t>['62', '90+5']</t>
   </si>
+  <si>
+    <t>['5']</t>
+  </si>
 </sst>
 </file>
 
@@ -1188,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2761,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>0.9</v>
@@ -4206,7 +4209,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -6057,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>0.8</v>
@@ -9147,7 +9150,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>1.7</v>
@@ -11619,7 +11622,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>0.44</v>
@@ -12034,7 +12037,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ53">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -13679,7 +13682,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>1.6</v>
@@ -14918,7 +14921,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ67">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.66</v>
@@ -16151,7 +16154,7 @@
         <v>1.2</v>
       </c>
       <c r="AP73">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
         <v>1.45</v>
@@ -19244,7 +19247,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ88">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1.3</v>
@@ -20889,7 +20892,7 @@
         <v>1.2</v>
       </c>
       <c r="AP96">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
         <v>1.3</v>
@@ -21098,7 +21101,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ97">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>1.43</v>
@@ -22746,7 +22749,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ105">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.49</v>
@@ -24185,7 +24188,7 @@
         <v>0.71</v>
       </c>
       <c r="AP112">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
         <v>0.6</v>
@@ -24600,7 +24603,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ114">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.67</v>
@@ -27278,7 +27281,7 @@
         <v>1</v>
       </c>
       <c r="AQ127">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR127">
         <v>1.51</v>
@@ -29335,7 +29338,7 @@
         <v>1.88</v>
       </c>
       <c r="AP137">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
         <v>1.7</v>
@@ -29750,7 +29753,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ139">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>1.5</v>
@@ -32222,7 +32225,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ151">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR151">
         <v>1.8</v>
@@ -32631,7 +32634,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ153">
         <v>1.9</v>
@@ -34358,6 +34361,212 @@
       </c>
       <c r="BP161">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>8205591</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>46010.625</v>
+      </c>
+      <c r="F162">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>76</v>
+      </c>
+      <c r="H162" t="s">
+        <v>75</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162" t="s">
+        <v>87</v>
+      </c>
+      <c r="P162" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q162">
+        <v>3.15</v>
+      </c>
+      <c r="R162">
+        <v>2.12</v>
+      </c>
+      <c r="S162">
+        <v>3</v>
+      </c>
+      <c r="T162">
+        <v>1.42</v>
+      </c>
+      <c r="U162">
+        <v>2.8</v>
+      </c>
+      <c r="V162">
+        <v>3.03</v>
+      </c>
+      <c r="W162">
+        <v>1.34</v>
+      </c>
+      <c r="X162">
+        <v>7.7</v>
+      </c>
+      <c r="Y162">
+        <v>1.02</v>
+      </c>
+      <c r="Z162">
+        <v>2.4</v>
+      </c>
+      <c r="AA162">
+        <v>3.1</v>
+      </c>
+      <c r="AB162">
+        <v>2.7</v>
+      </c>
+      <c r="AC162">
+        <v>1.05</v>
+      </c>
+      <c r="AD162">
+        <v>9</v>
+      </c>
+      <c r="AE162">
+        <v>1.28</v>
+      </c>
+      <c r="AF162">
+        <v>3.2</v>
+      </c>
+      <c r="AG162">
+        <v>1.97</v>
+      </c>
+      <c r="AH162">
+        <v>1.8</v>
+      </c>
+      <c r="AI162">
+        <v>1.75</v>
+      </c>
+      <c r="AJ162">
+        <v>2.08</v>
+      </c>
+      <c r="AK162">
+        <v>1.42</v>
+      </c>
+      <c r="AL162">
+        <v>1.25</v>
+      </c>
+      <c r="AM162">
+        <v>1.5</v>
+      </c>
+      <c r="AN162">
+        <v>2.2</v>
+      </c>
+      <c r="AO162">
+        <v>0.8</v>
+      </c>
+      <c r="AP162">
+        <v>2</v>
+      </c>
+      <c r="AQ162">
+        <v>1</v>
+      </c>
+      <c r="AR162">
+        <v>1.49</v>
+      </c>
+      <c r="AS162">
+        <v>1.43</v>
+      </c>
+      <c r="AT162">
+        <v>2.92</v>
+      </c>
+      <c r="AU162">
+        <v>2</v>
+      </c>
+      <c r="AV162">
+        <v>2</v>
+      </c>
+      <c r="AW162">
+        <v>15</v>
+      </c>
+      <c r="AX162">
+        <v>0</v>
+      </c>
+      <c r="AY162">
+        <v>17</v>
+      </c>
+      <c r="AZ162">
+        <v>2</v>
+      </c>
+      <c r="BA162">
+        <v>6</v>
+      </c>
+      <c r="BB162">
+        <v>2</v>
+      </c>
+      <c r="BC162">
+        <v>8</v>
+      </c>
+      <c r="BD162">
+        <v>1.76</v>
+      </c>
+      <c r="BE162">
+        <v>7</v>
+      </c>
+      <c r="BF162">
+        <v>2.35</v>
+      </c>
+      <c r="BG162">
+        <v>1.29</v>
+      </c>
+      <c r="BH162">
+        <v>3.06</v>
+      </c>
+      <c r="BI162">
+        <v>1.58</v>
+      </c>
+      <c r="BJ162">
+        <v>2.24</v>
+      </c>
+      <c r="BK162">
+        <v>1.93</v>
+      </c>
+      <c r="BL162">
+        <v>1.76</v>
+      </c>
+      <c r="BM162">
+        <v>2.51</v>
+      </c>
+      <c r="BN162">
+        <v>1.5</v>
+      </c>
+      <c r="BO162">
+        <v>3.45</v>
+      </c>
+      <c r="BP162">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="276">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,12 @@
     <t>['24', '68', '76', '90+2']</t>
   </si>
   <si>
+    <t>['77', '86']</t>
+  </si>
+  <si>
+    <t>['55', '60']</t>
+  </si>
+  <si>
     <t>['29', '55', '76', '90+1']</t>
   </si>
   <si>
@@ -830,6 +836,12 @@
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['12', '45+3', '47']</t>
+  </si>
+  <si>
+    <t>['87']</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1462,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>5.2</v>
@@ -1528,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ2">
         <v>1.9</v>
@@ -1656,7 +1668,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1862,7 +1874,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>4.33</v>
@@ -2352,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2480,7 +2492,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>1.87</v>
@@ -2561,7 +2573,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2892,7 +2904,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -3098,7 +3110,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>1.83</v>
@@ -3385,7 +3397,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ11">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3510,7 +3522,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3922,7 +3934,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4334,7 +4346,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>2.78</v>
@@ -4746,7 +4758,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4824,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4952,7 +4964,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q19">
         <v>5.59</v>
@@ -5364,7 +5376,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>2.17</v>
@@ -5570,7 +5582,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>2.34</v>
@@ -5651,7 +5663,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR22">
         <v>1.2</v>
@@ -5854,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ23">
         <v>1.7</v>
@@ -6063,7 +6075,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.17</v>
@@ -6188,7 +6200,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>2.83</v>
@@ -6394,7 +6406,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6600,7 +6612,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>2.93</v>
@@ -6806,7 +6818,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7012,7 +7024,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>4.4</v>
@@ -7218,7 +7230,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7424,7 +7436,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7836,7 +7848,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q33">
         <v>2.23</v>
@@ -8120,7 +8132,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ34">
         <v>1.7</v>
@@ -8454,7 +8466,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>2.26</v>
@@ -8866,7 +8878,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -8947,7 +8959,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.72</v>
@@ -9072,7 +9084,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9153,7 +9165,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR39">
         <v>1.04</v>
@@ -9356,7 +9368,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ40">
         <v>1.9</v>
@@ -9484,7 +9496,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>2.92</v>
@@ -9896,7 +9908,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q43">
         <v>3.65</v>
@@ -10102,7 +10114,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q44">
         <v>4.9</v>
@@ -10308,7 +10320,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q45">
         <v>1.93</v>
@@ -10514,7 +10526,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -11132,7 +11144,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>2.4</v>
@@ -11213,7 +11225,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ49">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.71</v>
@@ -11338,7 +11350,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>6.09</v>
@@ -11416,7 +11428,7 @@
         <v>2.33</v>
       </c>
       <c r="AP50">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ50">
         <v>1.9</v>
@@ -11544,7 +11556,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q51">
         <v>2.52</v>
@@ -11750,7 +11762,7 @@
         <v>87</v>
       </c>
       <c r="P52" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q52">
         <v>2.95</v>
@@ -11956,7 +11968,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12034,7 +12046,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12368,7 +12380,7 @@
         <v>87</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12449,7 +12461,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ55">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR55">
         <v>2.34</v>
@@ -12986,7 +12998,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>4.64</v>
@@ -13604,7 +13616,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>3.65</v>
@@ -13810,7 +13822,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14222,7 +14234,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14634,7 +14646,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14715,7 +14727,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ66">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR66">
         <v>1.69</v>
@@ -14918,7 +14930,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -15124,7 +15136,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ68">
         <v>1.6</v>
@@ -15458,7 +15470,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>5.6</v>
@@ -15664,7 +15676,7 @@
         <v>87</v>
       </c>
       <c r="P71" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>2.47</v>
@@ -15745,7 +15757,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ71">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.47</v>
@@ -15870,7 +15882,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q72">
         <v>3.8</v>
@@ -16566,7 +16578,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ75">
         <v>1.6</v>
@@ -16900,7 +16912,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17106,7 +17118,7 @@
         <v>117</v>
       </c>
       <c r="P78" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q78">
         <v>2.39</v>
@@ -17312,7 +17324,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q79">
         <v>2.65</v>
@@ -17518,7 +17530,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>2.4</v>
@@ -17724,7 +17736,7 @@
         <v>87</v>
       </c>
       <c r="P81" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q81">
         <v>2.94</v>
@@ -17805,7 +17817,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ81">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR81">
         <v>1.72</v>
@@ -17930,7 +17942,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q82">
         <v>2.7</v>
@@ -18342,7 +18354,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -18548,7 +18560,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18629,7 +18641,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ85">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.78</v>
@@ -18960,7 +18972,7 @@
         <v>87</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q87">
         <v>3.9</v>
@@ -19038,7 +19050,7 @@
         <v>1.25</v>
       </c>
       <c r="AP87">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ87">
         <v>1.6</v>
@@ -19166,7 +19178,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q88">
         <v>3.12</v>
@@ -19372,7 +19384,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>4.85</v>
@@ -19578,7 +19590,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>4.12</v>
@@ -19784,7 +19796,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>2.63</v>
@@ -19990,7 +20002,7 @@
         <v>151</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q92">
         <v>2.54</v>
@@ -20196,7 +20208,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q93">
         <v>2.27</v>
@@ -20686,7 +20698,7 @@
         <v>0.4</v>
       </c>
       <c r="AP95">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ95">
         <v>0.2</v>
@@ -21020,7 +21032,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21307,7 +21319,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ98">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR98">
         <v>2.05</v>
@@ -21432,7 +21444,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>2.5</v>
@@ -21719,7 +21731,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ100">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.59</v>
@@ -21844,7 +21856,7 @@
         <v>158</v>
       </c>
       <c r="P101" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -21922,7 +21934,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ101">
         <v>1.45</v>
@@ -22050,7 +22062,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q102">
         <v>3.12</v>
@@ -22256,7 +22268,7 @@
         <v>87</v>
       </c>
       <c r="P103" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q103">
         <v>2.85</v>
@@ -22462,7 +22474,7 @@
         <v>87</v>
       </c>
       <c r="P104" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q104">
         <v>2.37</v>
@@ -22874,7 +22886,7 @@
         <v>160</v>
       </c>
       <c r="P106" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q106">
         <v>3.58</v>
@@ -23080,7 +23092,7 @@
         <v>99</v>
       </c>
       <c r="P107" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q107">
         <v>3.65</v>
@@ -23286,7 +23298,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>3.47</v>
@@ -23364,7 +23376,7 @@
         <v>1.43</v>
       </c>
       <c r="AP108">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ108">
         <v>1.9</v>
@@ -23492,7 +23504,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q109">
         <v>2.4</v>
@@ -23776,7 +23788,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ110">
         <v>1.6</v>
@@ -24316,7 +24328,7 @@
         <v>164</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24397,7 +24409,7 @@
         <v>2</v>
       </c>
       <c r="AQ113">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR113">
         <v>1.59</v>
@@ -24522,7 +24534,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q114">
         <v>3.14</v>
@@ -24809,7 +24821,7 @@
         <v>1</v>
       </c>
       <c r="AQ115">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR115">
         <v>1.6</v>
@@ -24934,7 +24946,7 @@
         <v>87</v>
       </c>
       <c r="P116" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>3.39</v>
@@ -25346,7 +25358,7 @@
         <v>167</v>
       </c>
       <c r="P118" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>2.95</v>
@@ -25552,7 +25564,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>2.7</v>
@@ -27075,7 +27087,7 @@
         <v>2</v>
       </c>
       <c r="AQ126">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR126">
         <v>1.64</v>
@@ -27200,7 +27212,7 @@
         <v>87</v>
       </c>
       <c r="P127" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>6.03</v>
@@ -27406,7 +27418,7 @@
         <v>123</v>
       </c>
       <c r="P128" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q128">
         <v>1.94</v>
@@ -27612,7 +27624,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>4.5</v>
@@ -27818,7 +27830,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q130">
         <v>2.7</v>
@@ -27899,7 +27911,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ130">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR130">
         <v>1.47</v>
@@ -28024,7 +28036,7 @@
         <v>176</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q131">
         <v>4.5</v>
@@ -28230,7 +28242,7 @@
         <v>87</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28642,7 +28654,7 @@
         <v>178</v>
       </c>
       <c r="P134" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q134">
         <v>2.93</v>
@@ -28720,7 +28732,7 @@
         <v>1</v>
       </c>
       <c r="AP134">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ134">
         <v>0.9</v>
@@ -29054,7 +29066,7 @@
         <v>143</v>
       </c>
       <c r="P136" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q136">
         <v>3.9</v>
@@ -29132,7 +29144,7 @@
         <v>0.63</v>
       </c>
       <c r="AP136">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ136">
         <v>0.6</v>
@@ -29260,7 +29272,7 @@
         <v>112</v>
       </c>
       <c r="P137" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q137">
         <v>3.45</v>
@@ -30084,7 +30096,7 @@
         <v>132</v>
       </c>
       <c r="P141" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q141">
         <v>2.97</v>
@@ -30290,7 +30302,7 @@
         <v>87</v>
       </c>
       <c r="P142" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q142">
         <v>3.7</v>
@@ -30496,7 +30508,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>3.96</v>
@@ -30702,7 +30714,7 @@
         <v>183</v>
       </c>
       <c r="P144" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q144">
         <v>2.3</v>
@@ -31192,10 +31204,10 @@
         <v>0.89</v>
       </c>
       <c r="AP146">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ146">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR146">
         <v>1.51</v>
@@ -31320,7 +31332,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q147">
         <v>4.55</v>
@@ -31401,7 +31413,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ147">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR147">
         <v>1.5</v>
@@ -31938,7 +31950,7 @@
         <v>186</v>
       </c>
       <c r="P150" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q150">
         <v>4.9</v>
@@ -32016,7 +32028,7 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ150">
         <v>0.9</v>
@@ -32762,7 +32774,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q154">
         <v>1.73</v>
@@ -33174,7 +33186,7 @@
         <v>87</v>
       </c>
       <c r="P156" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33380,7 +33392,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q157">
         <v>4.47</v>
@@ -33792,7 +33804,7 @@
         <v>87</v>
       </c>
       <c r="P159" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -34204,7 +34216,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -34410,7 +34422,7 @@
         <v>87</v>
       </c>
       <c r="P162" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q162">
         <v>3.15</v>
@@ -34567,6 +34579,418 @@
       </c>
       <c r="BP162">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>8205581</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>46011.39583333334</v>
+      </c>
+      <c r="F163">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>70</v>
+      </c>
+      <c r="H163" t="s">
+        <v>84</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>2</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>3</v>
+      </c>
+      <c r="N163">
+        <v>5</v>
+      </c>
+      <c r="O163" t="s">
+        <v>190</v>
+      </c>
+      <c r="P163" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q163">
+        <v>3.3</v>
+      </c>
+      <c r="R163">
+        <v>2.1</v>
+      </c>
+      <c r="S163">
+        <v>3.25</v>
+      </c>
+      <c r="T163">
+        <v>1.42</v>
+      </c>
+      <c r="U163">
+        <v>2.72</v>
+      </c>
+      <c r="V163">
+        <v>3.27</v>
+      </c>
+      <c r="W163">
+        <v>1.33</v>
+      </c>
+      <c r="X163">
+        <v>8.5</v>
+      </c>
+      <c r="Y163">
+        <v>1.02</v>
+      </c>
+      <c r="Z163">
+        <v>2.65</v>
+      </c>
+      <c r="AA163">
+        <v>2.99</v>
+      </c>
+      <c r="AB163">
+        <v>2.7</v>
+      </c>
+      <c r="AC163">
+        <v>1.04</v>
+      </c>
+      <c r="AD163">
+        <v>7.5</v>
+      </c>
+      <c r="AE163">
+        <v>1.37</v>
+      </c>
+      <c r="AF163">
+        <v>2.74</v>
+      </c>
+      <c r="AG163">
+        <v>2.15</v>
+      </c>
+      <c r="AH163">
+        <v>1.65</v>
+      </c>
+      <c r="AI163">
+        <v>1.83</v>
+      </c>
+      <c r="AJ163">
+        <v>1.91</v>
+      </c>
+      <c r="AK163">
+        <v>1.36</v>
+      </c>
+      <c r="AL163">
+        <v>1.3</v>
+      </c>
+      <c r="AM163">
+        <v>1.44</v>
+      </c>
+      <c r="AN163">
+        <v>0.9</v>
+      </c>
+      <c r="AO163">
+        <v>0.8</v>
+      </c>
+      <c r="AP163">
+        <v>0.82</v>
+      </c>
+      <c r="AQ163">
+        <v>1</v>
+      </c>
+      <c r="AR163">
+        <v>1.32</v>
+      </c>
+      <c r="AS163">
+        <v>1.13</v>
+      </c>
+      <c r="AT163">
+        <v>2.45</v>
+      </c>
+      <c r="AU163">
+        <v>6</v>
+      </c>
+      <c r="AV163">
+        <v>6</v>
+      </c>
+      <c r="AW163">
+        <v>7</v>
+      </c>
+      <c r="AX163">
+        <v>6</v>
+      </c>
+      <c r="AY163">
+        <v>13</v>
+      </c>
+      <c r="AZ163">
+        <v>12</v>
+      </c>
+      <c r="BA163">
+        <v>7</v>
+      </c>
+      <c r="BB163">
+        <v>3</v>
+      </c>
+      <c r="BC163">
+        <v>10</v>
+      </c>
+      <c r="BD163">
+        <v>1.73</v>
+      </c>
+      <c r="BE163">
+        <v>7</v>
+      </c>
+      <c r="BF163">
+        <v>2.53</v>
+      </c>
+      <c r="BG163">
+        <v>1.23</v>
+      </c>
+      <c r="BH163">
+        <v>3.42</v>
+      </c>
+      <c r="BI163">
+        <v>1.47</v>
+      </c>
+      <c r="BJ163">
+        <v>2.43</v>
+      </c>
+      <c r="BK163">
+        <v>2.06</v>
+      </c>
+      <c r="BL163">
+        <v>1.88</v>
+      </c>
+      <c r="BM163">
+        <v>2.29</v>
+      </c>
+      <c r="BN163">
+        <v>1.54</v>
+      </c>
+      <c r="BO163">
+        <v>3.06</v>
+      </c>
+      <c r="BP163">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>8205715</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>46011.5</v>
+      </c>
+      <c r="F164">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>74</v>
+      </c>
+      <c r="H164" t="s">
+        <v>71</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>2</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164" t="s">
+        <v>191</v>
+      </c>
+      <c r="P164" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q164">
+        <v>3.12</v>
+      </c>
+      <c r="R164">
+        <v>1.81</v>
+      </c>
+      <c r="S164">
+        <v>3.9</v>
+      </c>
+      <c r="T164">
+        <v>1.57</v>
+      </c>
+      <c r="U164">
+        <v>2.29</v>
+      </c>
+      <c r="V164">
+        <v>3.52</v>
+      </c>
+      <c r="W164">
+        <v>1.23</v>
+      </c>
+      <c r="X164">
+        <v>9</v>
+      </c>
+      <c r="Y164">
+        <v>1.03</v>
+      </c>
+      <c r="Z164">
+        <v>2.29</v>
+      </c>
+      <c r="AA164">
+        <v>2.75</v>
+      </c>
+      <c r="AB164">
+        <v>3.4</v>
+      </c>
+      <c r="AC164">
+        <v>1.05</v>
+      </c>
+      <c r="AD164">
+        <v>6.25</v>
+      </c>
+      <c r="AE164">
+        <v>1.43</v>
+      </c>
+      <c r="AF164">
+        <v>2.5</v>
+      </c>
+      <c r="AG164">
+        <v>2.47</v>
+      </c>
+      <c r="AH164">
+        <v>1.51</v>
+      </c>
+      <c r="AI164">
+        <v>2.05</v>
+      </c>
+      <c r="AJ164">
+        <v>1.7</v>
+      </c>
+      <c r="AK164">
+        <v>1.4</v>
+      </c>
+      <c r="AL164">
+        <v>1.34</v>
+      </c>
+      <c r="AM164">
+        <v>1.57</v>
+      </c>
+      <c r="AN164">
+        <v>1.8</v>
+      </c>
+      <c r="AO164">
+        <v>1.7</v>
+      </c>
+      <c r="AP164">
+        <v>1.91</v>
+      </c>
+      <c r="AQ164">
+        <v>1.55</v>
+      </c>
+      <c r="AR164">
+        <v>1.51</v>
+      </c>
+      <c r="AS164">
+        <v>1.31</v>
+      </c>
+      <c r="AT164">
+        <v>2.82</v>
+      </c>
+      <c r="AU164">
+        <v>11</v>
+      </c>
+      <c r="AV164">
+        <v>4</v>
+      </c>
+      <c r="AW164">
+        <v>12</v>
+      </c>
+      <c r="AX164">
+        <v>8</v>
+      </c>
+      <c r="AY164">
+        <v>23</v>
+      </c>
+      <c r="AZ164">
+        <v>12</v>
+      </c>
+      <c r="BA164">
+        <v>4</v>
+      </c>
+      <c r="BB164">
+        <v>7</v>
+      </c>
+      <c r="BC164">
+        <v>11</v>
+      </c>
+      <c r="BD164">
+        <v>1.74</v>
+      </c>
+      <c r="BE164">
+        <v>7.5</v>
+      </c>
+      <c r="BF164">
+        <v>2.7</v>
+      </c>
+      <c r="BG164">
+        <v>1.32</v>
+      </c>
+      <c r="BH164">
+        <v>2.89</v>
+      </c>
+      <c r="BI164">
+        <v>1.63</v>
+      </c>
+      <c r="BJ164">
+        <v>2.13</v>
+      </c>
+      <c r="BK164">
+        <v>2.38</v>
+      </c>
+      <c r="BL164">
+        <v>1.7</v>
+      </c>
+      <c r="BM164">
+        <v>2.4</v>
+      </c>
+      <c r="BN164">
+        <v>1.39</v>
+      </c>
+      <c r="BO164">
+        <v>3.7</v>
+      </c>
+      <c r="BP164">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.2</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.3</v>
@@ -5061,7 +5061,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR21" t="n">
         <v>2.49</v>
@@ -7020,7 +7020,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.9</v>
@@ -8113,7 +8113,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR35" t="n">
         <v>1.63</v>
@@ -8328,7 +8328,7 @@
         <v>2</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -11816,7 +11816,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.55</v>
@@ -12688,10 +12688,10 @@
         <v>1.33</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR56" t="n">
         <v>1.67</v>
@@ -14650,7 +14650,7 @@
         <v>2.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.9</v>
@@ -15525,7 +15525,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR69" t="n">
         <v>1.64</v>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ71" t="n">
         <v>1</v>
@@ -17923,7 +17923,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR80" t="n">
         <v>1.69</v>
@@ -18138,7 +18138,7 @@
         <v>1.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.55</v>
@@ -19664,7 +19664,7 @@
         <v>0.67</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ88" t="n">
         <v>1</v>
@@ -20539,7 +20539,7 @@
         <v>2</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR92" t="n">
         <v>1.65</v>
@@ -22062,7 +22062,7 @@
         <v>1.6</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.6</v>
@@ -23152,7 +23152,7 @@
         <v>0.25</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.44</v>
@@ -24245,7 +24245,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR109" t="n">
         <v>1.91</v>
@@ -25768,7 +25768,7 @@
         <v>0.86</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.45</v>
@@ -26204,7 +26204,7 @@
         <v>0.83</v>
       </c>
       <c r="AP118" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.2</v>
@@ -27076,7 +27076,7 @@
         <v>0.29</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.2</v>
@@ -28602,7 +28602,7 @@
         <v>1.13</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.45</v>
@@ -29695,7 +29695,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR134" t="n">
         <v>1.46</v>
@@ -31218,7 +31218,7 @@
         <v>1.13</v>
       </c>
       <c r="AP141" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.3</v>
@@ -32090,7 +32090,7 @@
         <v>1.5</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.6</v>
@@ -32962,7 +32962,7 @@
         <v>0.67</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.6</v>
@@ -33183,7 +33183,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR150" t="n">
         <v>1.26</v>
@@ -35142,7 +35142,7 @@
         <v>1.44</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.6</v>
@@ -36529,6 +36529,442 @@
       </c>
       <c r="BP165" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>8205586</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>46012.375</v>
+      </c>
+      <c r="F166" t="n">
+        <v>21</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>2</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R166" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S166" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V166" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X166" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BL166" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BN166" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO166" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="BP166" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>8205592</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>46012.47916666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>21</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R167" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S167" t="n">
+        <v>4</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V167" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X167" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL167" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN167" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO167" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="BP167" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP167"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.6</v>
@@ -4625,7 +4625,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR19" t="n">
         <v>0.97</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.82</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38" t="n">
         <v>1</v>
@@ -9203,7 +9203,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR40" t="n">
         <v>1.24</v>
@@ -11383,7 +11383,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR50" t="n">
         <v>1.61</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.55</v>
@@ -14653,7 +14653,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR65" t="n">
         <v>1.39</v>
@@ -18795,7 +18795,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR84" t="n">
         <v>1.59</v>
@@ -19228,7 +19228,7 @@
         <v>0.5</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.2</v>
@@ -20972,7 +20972,7 @@
         <v>1.6</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.6</v>
@@ -22937,7 +22937,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR103" t="n">
         <v>1.58</v>
@@ -24678,7 +24678,7 @@
         <v>1</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.3</v>
@@ -26425,7 +26425,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR119" t="n">
         <v>1.59</v>
@@ -29474,7 +29474,7 @@
         <v>1.13</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ133" t="n">
         <v>1</v>
@@ -29913,7 +29913,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR135" t="n">
         <v>2.02</v>
@@ -32744,7 +32744,7 @@
         <v>1.78</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.55</v>
@@ -33837,7 +33837,7 @@
         <v>2</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR153" t="n">
         <v>1.46</v>
@@ -36965,6 +36965,224 @@
       </c>
       <c r="BP167" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>8205652</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>46012.625</v>
+      </c>
+      <c r="F168" t="n">
+        <v>21</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>2</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="n">
+        <v>3</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['24', '75']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R168" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S168" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V168" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X168" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL168" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN168" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO168" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BP168" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.55</v>
@@ -3971,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.9</v>
@@ -6587,7 +6587,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR28" t="n">
         <v>1.47</v>
@@ -8546,7 +8546,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.6</v>
@@ -11601,7 +11601,7 @@
         <v>2</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR51" t="n">
         <v>1.23</v>
@@ -12252,7 +12252,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ54" t="n">
         <v>1</v>
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.82</v>
@@ -18356,7 +18356,7 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.55</v>
@@ -18577,7 +18577,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR83" t="n">
         <v>1.76</v>
@@ -22280,7 +22280,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ100" t="n">
         <v>1</v>
@@ -23155,7 +23155,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR104" t="n">
         <v>1.64</v>
@@ -26422,7 +26422,7 @@
         <v>2.43</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.73</v>
@@ -26643,7 +26643,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR120" t="n">
         <v>1.9</v>
@@ -27733,7 +27733,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR125" t="n">
         <v>1.68</v>
@@ -28384,7 +28384,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.3</v>
@@ -30567,7 +30567,7 @@
         <v>2</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR138" t="n">
         <v>1.56</v>
@@ -33398,7 +33398,7 @@
         <v>0.78</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ151" t="n">
         <v>1</v>
@@ -34055,7 +34055,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR154" t="n">
         <v>2.01</v>
@@ -36907,13 +36907,13 @@
         <v>2</v>
       </c>
       <c r="AW167" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX167" t="n">
         <v>4</v>
       </c>
       <c r="AY167" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ167" t="n">
         <v>6</v>
@@ -37183,6 +37183,224 @@
       </c>
       <c r="BP168" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>8205611</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>46013.625</v>
+      </c>
+      <c r="F169" t="n">
+        <v>21</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Csikszereda</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>3</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>3</v>
+      </c>
+      <c r="L169" t="n">
+        <v>5</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>5</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['18', '33', '40', '70', '86']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S169" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="T169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U169" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V169" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X169" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL169" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM169" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN169" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO169" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP169" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -26125,7 +26125,7 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>['39', '57', '71']</t>
+          <t>['38', '57', '71']</t>
         </is>
       </c>
       <c r="Q118" t="n">
@@ -36802,7 +36802,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>['27']</t>
+          <t>['28']</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.73</v>
@@ -3317,7 +3317,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.4</v>
@@ -6805,7 +6805,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR29" t="n">
         <v>1.38</v>
@@ -10511,7 +10511,7 @@
         <v>2</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR46" t="n">
         <v>1.88</v>
@@ -10726,7 +10726,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.2</v>
@@ -13560,7 +13560,7 @@
         <v>0.33</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.2</v>
@@ -13999,7 +13999,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR62" t="n">
         <v>2.11</v>
@@ -15743,7 +15743,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR70" t="n">
         <v>1.45</v>
@@ -16397,7 +16397,7 @@
         <v>2</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR73" t="n">
         <v>1.36</v>
@@ -16612,7 +16612,7 @@
         <v>2</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.9</v>
@@ -20318,7 +20318,7 @@
         <v>0.83</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ91" t="n">
         <v>1</v>
@@ -22501,7 +22501,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR101" t="n">
         <v>1.4</v>
@@ -23806,7 +23806,7 @@
         <v>2</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.55</v>
@@ -25771,7 +25771,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR116" t="n">
         <v>1.22</v>
@@ -28605,7 +28605,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR129" t="n">
         <v>1.59</v>
@@ -29038,7 +29038,7 @@
         <v>1.29</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.6</v>
@@ -30782,7 +30782,7 @@
         <v>0.88</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ139" t="n">
         <v>1</v>
@@ -31657,7 +31657,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR143" t="n">
         <v>1.83</v>
@@ -34270,7 +34270,7 @@
         <v>1.67</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.6</v>
@@ -35581,7 +35581,7 @@
         <v>1</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR161" t="n">
         <v>1.42</v>
@@ -37401,6 +37401,224 @@
       </c>
       <c r="BP169" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>8205714</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>46038.625</v>
+      </c>
+      <c r="F170" t="n">
+        <v>22</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="R170" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S170" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X170" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BL170" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BN170" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO170" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP170" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3099,7 +3099,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.4</v>
@@ -6369,7 +6369,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR27" t="n">
         <v>1.18</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.2</v>
@@ -9418,7 +9418,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.2</v>
@@ -9639,7 +9639,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR42" t="n">
         <v>1.48</v>
@@ -12909,7 +12909,7 @@
         <v>2</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR57" t="n">
         <v>1.73</v>
@@ -13124,7 +13124,7 @@
         <v>1.75</v>
       </c>
       <c r="AP58" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.9</v>
@@ -17048,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ76" t="n">
         <v>1</v>
@@ -17269,7 +17269,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR77" t="n">
         <v>1.94</v>
@@ -19882,7 +19882,7 @@
         <v>1.83</v>
       </c>
       <c r="AP89" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.55</v>
@@ -21411,7 +21411,7 @@
         <v>2</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR96" t="n">
         <v>1.45</v>
@@ -24681,7 +24681,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR111" t="n">
         <v>1.95</v>
@@ -25550,7 +25550,7 @@
         <v>1.57</v>
       </c>
       <c r="AP115" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.55</v>
@@ -28166,7 +28166,7 @@
         <v>0.57</v>
       </c>
       <c r="AP127" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ127" t="n">
         <v>1</v>
@@ -28387,7 +28387,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR128" t="n">
         <v>1.73</v>
@@ -31221,7 +31221,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR141" t="n">
         <v>1.53</v>
@@ -31436,7 +31436,7 @@
         <v>1.5</v>
       </c>
       <c r="AP142" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.6</v>
@@ -35363,7 +35363,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR160" t="n">
         <v>1.79</v>
@@ -35578,7 +35578,7 @@
         <v>1.3</v>
       </c>
       <c r="AP161" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.33</v>
@@ -37619,6 +37619,224 @@
       </c>
       <c r="BP170" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>8205613</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>46039.33333333334</v>
+      </c>
+      <c r="F171" t="n">
+        <v>22</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>2</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="n">
+        <v>3</v>
+      </c>
+      <c r="N171" t="n">
+        <v>4</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['23', '73', '82']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="R171" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S171" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V171" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X171" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL171" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM171" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN171" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO171" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP171" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.2</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
@@ -4843,7 +4843,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR20" t="n">
         <v>2.17</v>
@@ -6148,10 +6148,10 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR26" t="n">
         <v>1.02</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.6</v>
@@ -8549,7 +8549,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR37" t="n">
         <v>1.59</v>
@@ -9421,7 +9421,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR41" t="n">
         <v>2.34</v>
@@ -9857,7 +9857,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR43" t="n">
         <v>1.76</v>
@@ -10508,7 +10508,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.33</v>
@@ -10944,7 +10944,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.9</v>
@@ -12906,7 +12906,7 @@
         <v>1.67</v>
       </c>
       <c r="AP57" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.45</v>
@@ -13345,7 +13345,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR59" t="n">
         <v>1.65</v>
@@ -13563,7 +13563,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR60" t="n">
         <v>1.5</v>
@@ -14432,7 +14432,7 @@
         <v>1.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ64" t="n">
         <v>1</v>
@@ -17484,10 +17484,10 @@
         <v>0.4</v>
       </c>
       <c r="AP78" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR78" t="n">
         <v>1.64</v>
@@ -17705,7 +17705,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR79" t="n">
         <v>1.4</v>
@@ -19010,7 +19010,7 @@
         <v>1.4</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ85" t="n">
         <v>1</v>
@@ -20536,7 +20536,7 @@
         <v>0.83</v>
       </c>
       <c r="AP92" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.82</v>
@@ -20757,7 +20757,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR93" t="n">
         <v>1.89</v>
@@ -21193,7 +21193,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR95" t="n">
         <v>1.43</v>
@@ -21844,7 +21844,7 @@
         <v>1.67</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.55</v>
@@ -24899,7 +24899,7 @@
         <v>2</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR112" t="n">
         <v>1.44</v>
@@ -25114,7 +25114,7 @@
         <v>1.14</v>
       </c>
       <c r="AP113" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ113" t="n">
         <v>1</v>
@@ -25989,7 +25989,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR117" t="n">
         <v>1.68</v>
@@ -26640,7 +26640,7 @@
         <v>0.8</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.4</v>
@@ -27079,7 +27079,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR122" t="n">
         <v>1.16</v>
@@ -27294,7 +27294,7 @@
         <v>1.71</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.6</v>
@@ -27948,7 +27948,7 @@
         <v>1.75</v>
       </c>
       <c r="AP126" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.55</v>
@@ -30131,7 +30131,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR136" t="n">
         <v>1.22</v>
@@ -30564,7 +30564,7 @@
         <v>0.57</v>
       </c>
       <c r="AP138" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.4</v>
@@ -31654,7 +31654,7 @@
         <v>1.11</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.33</v>
@@ -31875,7 +31875,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR144" t="n">
         <v>1.33</v>
@@ -32965,7 +32965,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR149" t="n">
         <v>1.15</v>
@@ -34488,7 +34488,7 @@
         <v>1</v>
       </c>
       <c r="AP156" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.2</v>
@@ -34927,7 +34927,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR158" t="n">
         <v>1.67</v>
@@ -35360,7 +35360,7 @@
         <v>1.33</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.45</v>
@@ -37837,6 +37837,442 @@
       </c>
       <c r="BP171" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>8205615</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>46039.51041666666</v>
+      </c>
+      <c r="F172" t="n">
+        <v>22</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>2</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S172" t="n">
+        <v>4</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V172" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X172" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL172" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BM172" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO172" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP172" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>8205593</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>46039.625</v>
+      </c>
+      <c r="F173" t="n">
+        <v>22</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Metaloglobus</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S173" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U173" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="V173" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X173" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL173" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM173" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN173" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO173" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BP173" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP173"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.55</v>
@@ -3535,7 +3535,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.73</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.55</v>
@@ -5933,7 +5933,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR25" t="n">
         <v>0.83</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.33</v>
@@ -7023,7 +7023,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR30" t="n">
         <v>1.79</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.6</v>
@@ -7459,7 +7459,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR32" t="n">
         <v>2.42</v>
@@ -7677,7 +7677,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR33" t="n">
         <v>2.3</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.45</v>
@@ -10072,7 +10072,7 @@
         <v>2</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.6</v>
@@ -10290,10 +10290,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR45" t="n">
         <v>1.68</v>
@@ -10729,7 +10729,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR47" t="n">
         <v>1.39</v>
@@ -10947,7 +10947,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR48" t="n">
         <v>1.49</v>
@@ -13127,7 +13127,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR58" t="n">
         <v>2.09</v>
@@ -13342,7 +13342,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.64</v>
@@ -13996,7 +13996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.33</v>
@@ -14214,10 +14214,10 @@
         <v>0.33</v>
       </c>
       <c r="AP63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ63" t="n">
         <v>1.09</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>1.2</v>
       </c>
       <c r="AR63" t="n">
         <v>1.4</v>
@@ -15307,7 +15307,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR68" t="n">
         <v>1.4</v>
@@ -15740,7 +15740,7 @@
         <v>1.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.33</v>
@@ -16615,7 +16615,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR74" t="n">
         <v>1.63</v>
@@ -17266,7 +17266,7 @@
         <v>1.25</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.45</v>
@@ -17702,7 +17702,7 @@
         <v>0.25</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.18</v>
@@ -17920,7 +17920,7 @@
         <v>0.8</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.82</v>
@@ -19231,7 +19231,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR86" t="n">
         <v>2.17</v>
@@ -19449,7 +19449,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR87" t="n">
         <v>1.52</v>
@@ -20100,10 +20100,10 @@
         <v>1.67</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR90" t="n">
         <v>1.47</v>
@@ -20754,7 +20754,7 @@
         <v>0.83</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.64</v>
@@ -21626,7 +21626,7 @@
         <v>0.75</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ97" t="n">
         <v>1</v>
@@ -22065,7 +22065,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR99" t="n">
         <v>1.28</v>
@@ -22719,7 +22719,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR102" t="n">
         <v>1.76</v>
@@ -22934,7 +22934,7 @@
         <v>2.33</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.73</v>
@@ -23588,7 +23588,7 @@
         <v>1.14</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ106" t="n">
         <v>1</v>
@@ -24027,7 +24027,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR108" t="n">
         <v>1.5</v>
@@ -24242,7 +24242,7 @@
         <v>0.71</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.82</v>
@@ -25332,7 +25332,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ114" t="n">
         <v>1</v>
@@ -26207,7 +26207,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR118" t="n">
         <v>1.69</v>
@@ -26861,7 +26861,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR121" t="n">
         <v>1.4</v>
@@ -27297,7 +27297,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR123" t="n">
         <v>1.83</v>
@@ -27515,7 +27515,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR124" t="n">
         <v>1.32</v>
@@ -27730,7 +27730,7 @@
         <v>0.67</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.4</v>
@@ -28820,7 +28820,7 @@
         <v>1</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ130" t="n">
         <v>1</v>
@@ -29259,7 +29259,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR132" t="n">
         <v>1.68</v>
@@ -29910,7 +29910,7 @@
         <v>2.25</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.73</v>
@@ -31000,10 +31000,10 @@
         <v>1.13</v>
       </c>
       <c r="AP140" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR140" t="n">
         <v>1.8</v>
@@ -31439,7 +31439,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR142" t="n">
         <v>1.46</v>
@@ -32526,7 +32526,7 @@
         <v>1.56</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.55</v>
@@ -34052,7 +34052,7 @@
         <v>0.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.4</v>
@@ -34273,7 +34273,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR155" t="n">
         <v>1.47</v>
@@ -34491,7 +34491,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR156" t="n">
         <v>1.61</v>
@@ -34709,7 +34709,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR157" t="n">
         <v>1.41</v>
@@ -34924,7 +34924,7 @@
         <v>0.22</v>
       </c>
       <c r="AP158" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.18</v>
@@ -38273,6 +38273,660 @@
       </c>
       <c r="BP173" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>8205588</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>46040.4375</v>
+      </c>
+      <c r="F174" t="n">
+        <v>22</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Csikszereda</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="R174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S174" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V174" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X174" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL174" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM174" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN174" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO174" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="BP174" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>8205713</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>46040.53125</v>
+      </c>
+      <c r="F175" t="n">
+        <v>22</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Oţelul Galaţi</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R175" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S175" t="n">
+        <v>4</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V175" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X175" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL175" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM175" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN175" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO175" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP175" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>8205716</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>46040.64583333334</v>
+      </c>
+      <c r="F176" t="n">
+        <v>22</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Dinamo Bucureşti</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R176" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S176" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V176" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X176" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM176" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN176" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO176" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP176" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -38869,13 +38869,13 @@
         <v>6</v>
       </c>
       <c r="AW176" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX176" t="n">
         <v>4</v>
       </c>
       <c r="AY176" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ176" t="n">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.33</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.45</v>
@@ -7241,7 +7241,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR31" t="n">
         <v>1.28</v>
@@ -9854,7 +9854,7 @@
         <v>0.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.64</v>
@@ -10075,7 +10075,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR44" t="n">
         <v>1.34</v>
@@ -13781,7 +13781,7 @@
         <v>2</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR61" t="n">
         <v>1.38</v>
@@ -16176,7 +16176,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.55</v>
@@ -16833,7 +16833,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR75" t="n">
         <v>1.53</v>
@@ -18792,7 +18792,7 @@
         <v>2.2</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.73</v>
@@ -20975,7 +20975,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR94" t="n">
         <v>2.04</v>
@@ -23370,7 +23370,7 @@
         <v>0.8</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ105" t="n">
         <v>1</v>
@@ -24463,7 +24463,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR110" t="n">
         <v>1.32</v>
@@ -26858,7 +26858,7 @@
         <v>1.83</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.45</v>
@@ -27512,7 +27512,7 @@
         <v>1.14</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.09</v>
@@ -29041,7 +29041,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR131" t="n">
         <v>1.5</v>
@@ -31872,7 +31872,7 @@
         <v>0.25</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.18</v>
@@ -32093,7 +32093,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR145" t="n">
         <v>1.24</v>
@@ -34706,7 +34706,7 @@
         <v>1.78</v>
       </c>
       <c r="AP157" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.73</v>
@@ -35145,7 +35145,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR159" t="n">
         <v>1.47</v>
@@ -38927,6 +38927,224 @@
       </c>
       <c r="BP176" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>8205707</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>46041.625</v>
+      </c>
+      <c r="F177" t="n">
+        <v>22</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>2</v>
+      </c>
+      <c r="K177" t="n">
+        <v>2</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>4</v>
+      </c>
+      <c r="N177" t="n">
+        <v>4</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['16', '17', '81', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="R177" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S177" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V177" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X177" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL177" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM177" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN177" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO177" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP177" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -38215,16 +38215,16 @@
         <v>3</v>
       </c>
       <c r="AW173" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX173" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY173" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ173" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA173" t="n">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.73</v>
@@ -2881,7 +2881,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ18" t="n">
         <v>1</v>
@@ -5279,7 +5279,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR22" t="n">
         <v>1.2</v>
@@ -7892,7 +7892,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.55</v>
@@ -8985,7 +8985,7 @@
         <v>2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR39" t="n">
         <v>1.04</v>
@@ -11380,7 +11380,7 @@
         <v>2.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.73</v>
@@ -12473,7 +12473,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR55" t="n">
         <v>2.34</v>
@@ -14871,7 +14871,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR66" t="n">
         <v>1.69</v>
@@ -15086,7 +15086,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ67" t="n">
         <v>1</v>
@@ -18141,7 +18141,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR81" t="n">
         <v>1.72</v>
@@ -19446,7 +19446,7 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.45</v>
@@ -21847,7 +21847,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR98" t="n">
         <v>2.05</v>
@@ -22498,7 +22498,7 @@
         <v>1</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.33</v>
@@ -24460,7 +24460,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.73</v>
@@ -25553,7 +25553,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR115" t="n">
         <v>1.6</v>
@@ -27951,7 +27951,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR126" t="n">
         <v>1.64</v>
@@ -30128,7 +30128,7 @@
         <v>0.63</v>
       </c>
       <c r="AP136" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.64</v>
@@ -32529,7 +32529,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR147" t="n">
         <v>1.5</v>
@@ -33180,7 +33180,7 @@
         <v>1</v>
       </c>
       <c r="AP150" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ150" t="n">
         <v>0.82</v>
@@ -36014,7 +36014,7 @@
         <v>0.8</v>
       </c>
       <c r="AP163" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ163" t="n">
         <v>1</v>
@@ -36235,7 +36235,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR164" t="n">
         <v>1.51</v>
@@ -39145,6 +39145,224 @@
       </c>
       <c r="BP177" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>8205719</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>46045.5</v>
+      </c>
+      <c r="F178" t="n">
+        <v>23</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Metaloglobus</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>2</v>
+      </c>
+      <c r="N178" t="n">
+        <v>2</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['64', '72']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T178" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X178" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL178" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM178" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN178" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO178" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP178" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP178"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,7 +2445,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.18</v>
@@ -5497,7 +5497,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR23" t="n">
         <v>1.2</v>
@@ -7020,7 +7020,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.73</v>
@@ -7895,7 +7895,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR34" t="n">
         <v>1.69</v>
@@ -11819,7 +11819,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR52" t="n">
         <v>1.67</v>
@@ -12688,7 +12688,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.82</v>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ71" t="n">
         <v>1</v>
@@ -16179,7 +16179,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR72" t="n">
         <v>1.67</v>
@@ -18138,7 +18138,7 @@
         <v>1.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.67</v>
@@ -18359,7 +18359,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR82" t="n">
         <v>1.62</v>
@@ -19885,7 +19885,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR89" t="n">
         <v>1.79</v>
@@ -23152,7 +23152,7 @@
         <v>0.25</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.4</v>
@@ -23809,7 +23809,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR107" t="n">
         <v>1.62</v>
@@ -26204,7 +26204,7 @@
         <v>0.83</v>
       </c>
       <c r="AP118" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.09</v>
@@ -28602,7 +28602,7 @@
         <v>1.13</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.33</v>
@@ -30349,7 +30349,7 @@
         <v>2</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR137" t="n">
         <v>1.46</v>
@@ -31218,7 +31218,7 @@
         <v>1.13</v>
       </c>
       <c r="AP141" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.45</v>
@@ -32747,7 +32747,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR148" t="n">
         <v>2.03</v>
@@ -35142,7 +35142,7 @@
         <v>1.44</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.73</v>
@@ -36453,7 +36453,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR165" t="n">
         <v>1.68</v>
@@ -36668,7 +36668,7 @@
         <v>1</v>
       </c>
       <c r="AP166" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ166" t="n">
         <v>1</v>
@@ -39363,6 +39363,224 @@
       </c>
       <c r="BP178" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>8205659</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>46045.625</v>
+      </c>
+      <c r="F179" t="n">
+        <v>23</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Dinamo Bucureşti</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="n">
+        <v>2</v>
+      </c>
+      <c r="N179" t="n">
+        <v>3</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['71', '80']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="R179" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S179" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V179" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X179" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BL179" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM179" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN179" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO179" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BP179" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,7 +2009,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.45</v>
@@ -5715,7 +5715,7 @@
         <v>2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR24" t="n">
         <v>1.17</v>
@@ -8328,7 +8328,7 @@
         <v>2</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -8767,7 +8767,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR38" t="n">
         <v>1.72</v>
@@ -11165,7 +11165,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR49" t="n">
         <v>1.71</v>
@@ -11816,7 +11816,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.67</v>
@@ -14650,7 +14650,7 @@
         <v>2.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.73</v>
@@ -15961,7 +15961,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR71" t="n">
         <v>1.47</v>
@@ -19013,7 +19013,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR85" t="n">
         <v>1.78</v>
@@ -19664,7 +19664,7 @@
         <v>0.67</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ88" t="n">
         <v>1</v>
@@ -22062,7 +22062,7 @@
         <v>1.6</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.45</v>
@@ -22283,7 +22283,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR100" t="n">
         <v>1.59</v>
@@ -25117,7 +25117,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR113" t="n">
         <v>1.59</v>
@@ -25768,7 +25768,7 @@
         <v>0.86</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.33</v>
@@ -27076,7 +27076,7 @@
         <v>0.29</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.18</v>
@@ -28823,7 +28823,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR130" t="n">
         <v>1.47</v>
@@ -32090,7 +32090,7 @@
         <v>1.5</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.73</v>
@@ -32311,7 +32311,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR146" t="n">
         <v>1.51</v>
@@ -32962,7 +32962,7 @@
         <v>0.67</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.64</v>
@@ -36017,7 +36017,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR163" t="n">
         <v>1.32</v>
@@ -36886,7 +36886,7 @@
         <v>0.9</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ167" t="n">
         <v>0.82</v>
@@ -39581,6 +39581,224 @@
       </c>
       <c r="BP179" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>8205585</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>46046.5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>23</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R180" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S180" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V180" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X180" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BL180" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM180" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN180" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO180" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP180" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP180"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.67</v>
@@ -4189,7 +4189,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.73</v>
@@ -7677,7 +7677,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR33" t="n">
         <v>2.3</v>
@@ -8546,7 +8546,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.64</v>
@@ -10293,7 +10293,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR45" t="n">
         <v>1.68</v>
@@ -12252,7 +12252,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ54" t="n">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR68" t="n">
         <v>1.4</v>
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.82</v>
@@ -18356,7 +18356,7 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.67</v>
@@ -19449,7 +19449,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR87" t="n">
         <v>1.52</v>
@@ -22065,7 +22065,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR99" t="n">
         <v>1.28</v>
@@ -22280,7 +22280,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.92</v>
@@ -26422,7 +26422,7 @@
         <v>2.43</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.73</v>
@@ -26861,7 +26861,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR121" t="n">
         <v>1.4</v>
@@ -27297,7 +27297,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR123" t="n">
         <v>1.83</v>
@@ -28384,7 +28384,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.45</v>
@@ -31439,7 +31439,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR142" t="n">
         <v>1.46</v>
@@ -33398,7 +33398,7 @@
         <v>0.78</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ151" t="n">
         <v>1</v>
@@ -34273,7 +34273,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR155" t="n">
         <v>1.47</v>
@@ -37322,7 +37322,7 @@
         <v>0.44</v>
       </c>
       <c r="AP169" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ169" t="n">
         <v>0.4</v>
@@ -38415,7 +38415,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR174" t="n">
         <v>1.43</v>
@@ -39799,6 +39799,224 @@
       </c>
       <c r="BP180" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>8205708</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>46046.625</v>
+      </c>
+      <c r="F181" t="n">
+        <v>23</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>2</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>2</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['65', '83']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R181" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S181" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T181" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V181" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X181" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL181" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM181" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BN181" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO181" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BP181" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.33</v>
@@ -5061,7 +5061,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR21" t="n">
         <v>2.49</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.45</v>
@@ -8113,7 +8113,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR35" t="n">
         <v>1.63</v>
@@ -9854,7 +9854,7 @@
         <v>0.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.64</v>
@@ -12691,7 +12691,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR56" t="n">
         <v>1.67</v>
@@ -15525,7 +15525,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR69" t="n">
         <v>1.64</v>
@@ -16176,7 +16176,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.67</v>
@@ -17923,7 +17923,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR80" t="n">
         <v>1.69</v>
@@ -18792,7 +18792,7 @@
         <v>2.2</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.73</v>
@@ -20539,7 +20539,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR92" t="n">
         <v>1.65</v>
@@ -23370,7 +23370,7 @@
         <v>0.8</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ105" t="n">
         <v>1</v>
@@ -24245,7 +24245,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR109" t="n">
         <v>1.91</v>
@@ -26858,7 +26858,7 @@
         <v>1.83</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.33</v>
@@ -27512,7 +27512,7 @@
         <v>1.14</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.09</v>
@@ -29695,7 +29695,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR134" t="n">
         <v>1.46</v>
@@ -31872,7 +31872,7 @@
         <v>0.25</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.18</v>
@@ -33183,7 +33183,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR150" t="n">
         <v>1.26</v>
@@ -34706,7 +34706,7 @@
         <v>1.78</v>
       </c>
       <c r="AP157" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.73</v>
@@ -36889,7 +36889,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR167" t="n">
         <v>1.17</v>
@@ -39066,7 +39066,7 @@
         <v>1.6</v>
       </c>
       <c r="AP177" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.73</v>
@@ -40017,6 +40017,224 @@
       </c>
       <c r="BP181" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>8205718</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>46047.39583333334</v>
+      </c>
+      <c r="F182" t="n">
+        <v>23</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R182" t="n">
+        <v>2</v>
+      </c>
+      <c r="S182" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T182" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V182" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X182" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL182" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM182" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN182" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO182" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BP182" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP182"/>
+  <dimension ref="A1:BP183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.64</v>
@@ -3753,7 +3753,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.92</v>
@@ -12037,7 +12037,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR53" t="n">
         <v>1.43</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.67</v>
@@ -15089,7 +15089,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR67" t="n">
         <v>1.66</v>
@@ -19228,7 +19228,7 @@
         <v>0.5</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.09</v>
@@ -19667,7 +19667,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR88" t="n">
         <v>1.3</v>
@@ -20972,7 +20972,7 @@
         <v>1.6</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.73</v>
@@ -21629,7 +21629,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR97" t="n">
         <v>1.43</v>
@@ -23373,7 +23373,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR105" t="n">
         <v>1.49</v>
@@ -24678,7 +24678,7 @@
         <v>1</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.45</v>
@@ -25335,7 +25335,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR114" t="n">
         <v>1.67</v>
@@ -28169,7 +28169,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR127" t="n">
         <v>1.51</v>
@@ -29474,7 +29474,7 @@
         <v>1.13</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ133" t="n">
         <v>1</v>
@@ -30785,7 +30785,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR139" t="n">
         <v>1.5</v>
@@ -32744,7 +32744,7 @@
         <v>1.78</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.67</v>
@@ -33401,7 +33401,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR151" t="n">
         <v>1.8</v>
@@ -35799,7 +35799,7 @@
         <v>2</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR162" t="n">
         <v>1.49</v>
@@ -37104,7 +37104,7 @@
         <v>1.9</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.73</v>
@@ -40235,6 +40235,224 @@
       </c>
       <c r="BP182" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>8205717</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>46047.625</v>
+      </c>
+      <c r="F183" t="n">
+        <v>23</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>2</v>
+      </c>
+      <c r="K183" t="n">
+        <v>3</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="n">
+        <v>4</v>
+      </c>
+      <c r="N183" t="n">
+        <v>5</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['41', '44', '49', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R183" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S183" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T183" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V183" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X183" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL183" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM183" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN183" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO183" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BP183" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -40189,13 +40189,13 @@
         <v>6</v>
       </c>
       <c r="BA182" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB182" t="n">
         <v>3</v>
       </c>
       <c r="BC182" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD182" t="n">
         <v>2.1</v>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -40189,13 +40189,13 @@
         <v>6</v>
       </c>
       <c r="BA182" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB182" t="n">
         <v>3</v>
       </c>
       <c r="BC182" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD182" t="n">
         <v>2.1</v>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP183"/>
+  <dimension ref="A1:BP185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.73</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
@@ -3971,7 +3971,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR19" t="n">
         <v>0.97</v>
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.64</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.67</v>
@@ -6587,7 +6587,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR28" t="n">
         <v>1.47</v>
@@ -8110,7 +8110,7 @@
         <v>2</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ35" t="n">
         <v>1</v>
@@ -9200,10 +9200,10 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR40" t="n">
         <v>1.24</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.92</v>
@@ -11383,7 +11383,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR50" t="n">
         <v>1.61</v>
@@ -11601,7 +11601,7 @@
         <v>2</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR51" t="n">
         <v>1.23</v>
@@ -12034,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.17</v>
@@ -14653,7 +14653,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR65" t="n">
         <v>1.39</v>
@@ -14868,7 +14868,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.67</v>
@@ -15304,7 +15304,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.33</v>
@@ -16830,7 +16830,7 @@
         <v>2</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.73</v>
@@ -18574,10 +18574,10 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR83" t="n">
         <v>1.76</v>
@@ -18795,7 +18795,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR84" t="n">
         <v>1.59</v>
@@ -21190,7 +21190,7 @@
         <v>0.4</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.18</v>
@@ -22716,7 +22716,7 @@
         <v>0.4</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.09</v>
@@ -22937,7 +22937,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR103" t="n">
         <v>1.58</v>
@@ -23155,7 +23155,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR104" t="n">
         <v>1.64</v>
@@ -24024,7 +24024,7 @@
         <v>1.43</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.73</v>
@@ -25986,7 +25986,7 @@
         <v>0.33</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.18</v>
@@ -26425,7 +26425,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR119" t="n">
         <v>1.59</v>
@@ -26643,7 +26643,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR120" t="n">
         <v>1.9</v>
@@ -27733,7 +27733,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR125" t="n">
         <v>1.68</v>
@@ -29256,7 +29256,7 @@
         <v>1.63</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.73</v>
@@ -29692,7 +29692,7 @@
         <v>1</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ134" t="n">
         <v>1</v>
@@ -29913,7 +29913,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR135" t="n">
         <v>2.02</v>
@@ -30567,7 +30567,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR138" t="n">
         <v>1.56</v>
@@ -32308,7 +32308,7 @@
         <v>0.89</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.92</v>
@@ -33616,7 +33616,7 @@
         <v>1.11</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ152" t="n">
         <v>1</v>
@@ -33837,7 +33837,7 @@
         <v>2</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR153" t="n">
         <v>1.46</v>
@@ -34055,7 +34055,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR154" t="n">
         <v>2.01</v>
@@ -36232,7 +36232,7 @@
         <v>1.7</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.67</v>
@@ -36450,7 +36450,7 @@
         <v>1.7</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.67</v>
@@ -37107,7 +37107,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR168" t="n">
         <v>1.9</v>
@@ -37325,7 +37325,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR169" t="n">
         <v>1.87</v>
@@ -40395,13 +40395,13 @@
         <v>7</v>
       </c>
       <c r="AW183" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX183" t="n">
         <v>4</v>
       </c>
       <c r="AY183" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ183" t="n">
         <v>11</v>
@@ -40453,6 +40453,442 @@
       </c>
       <c r="BP183" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>8205722</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>46048.5</v>
+      </c>
+      <c r="F184" t="n">
+        <v>23</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Oţelul Galaţi</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Csikszereda</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>2</v>
+      </c>
+      <c r="L184" t="n">
+        <v>3</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>3</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['5', '9', '68']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>2</v>
+      </c>
+      <c r="R184" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S184" t="n">
+        <v>6</v>
+      </c>
+      <c r="T184" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V184" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X184" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL184" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN184" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO184" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP184" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>8205614</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>46048.625</v>
+      </c>
+      <c r="F185" t="n">
+        <v>23</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="n">
+        <v>2</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="n">
+        <v>2</v>
+      </c>
+      <c r="N185" t="n">
+        <v>3</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['43', '79']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="R185" t="n">
+        <v>2</v>
+      </c>
+      <c r="S185" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X185" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BL185" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN185" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO185" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP185" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -40616,13 +40616,13 @@
         <v>17</v>
       </c>
       <c r="AX184" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY184" t="n">
         <v>23</v>
       </c>
       <c r="AZ184" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA184" t="n">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP185"/>
+  <dimension ref="A1:BP186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.92</v>
@@ -2663,7 +2663,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.67</v>
@@ -6151,7 +6151,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR26" t="n">
         <v>1.02</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.73</v>
@@ -9421,7 +9421,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR41" t="n">
         <v>2.34</v>
@@ -10290,7 +10290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.33</v>
@@ -13563,7 +13563,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR60" t="n">
         <v>1.5</v>
@@ -13996,7 +13996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.33</v>
@@ -17266,7 +17266,7 @@
         <v>1.25</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.45</v>
@@ -17705,7 +17705,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR79" t="n">
         <v>1.4</v>
@@ -20754,7 +20754,7 @@
         <v>0.83</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.64</v>
@@ -21193,7 +21193,7 @@
         <v>2</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR95" t="n">
         <v>1.43</v>
@@ -24242,7 +24242,7 @@
         <v>0.71</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ109" t="n">
         <v>1</v>
@@ -25989,7 +25989,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR117" t="n">
         <v>1.68</v>
@@ -27079,7 +27079,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR122" t="n">
         <v>1.16</v>
@@ -29910,7 +29910,7 @@
         <v>2.25</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.83</v>
@@ -31875,7 +31875,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR144" t="n">
         <v>1.33</v>
@@ -34052,7 +34052,7 @@
         <v>0.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.36</v>
@@ -34927,7 +34927,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR158" t="n">
         <v>1.67</v>
@@ -38197,7 +38197,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR173" t="n">
         <v>1.61</v>
@@ -38630,7 +38630,7 @@
         <v>1.2</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.09</v>
@@ -40889,6 +40889,224 @@
       </c>
       <c r="BP185" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>8205617</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>46052.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>24</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Metaloglobus</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>2</v>
+      </c>
+      <c r="L186" t="n">
+        <v>4</v>
+      </c>
+      <c r="M186" t="n">
+        <v>2</v>
+      </c>
+      <c r="N186" t="n">
+        <v>6</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['14', '70', '88', '89']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['9', '51']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R186" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S186" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="T186" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U186" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V186" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X186" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL186" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM186" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN186" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO186" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP186" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP186"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.83</v>
@@ -1573,7 +1573,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.17</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.36</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.33</v>
@@ -4843,7 +4843,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR20" t="n">
         <v>2.17</v>
@@ -5933,7 +5933,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR25" t="n">
         <v>0.83</v>
@@ -6369,7 +6369,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR27" t="n">
         <v>1.18</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.36</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.33</v>
@@ -7023,7 +7023,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR30" t="n">
         <v>1.79</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.09</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.33</v>
@@ -8549,7 +8549,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR37" t="n">
         <v>1.59</v>
@@ -9418,7 +9418,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.17</v>
@@ -9636,10 +9636,10 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR42" t="n">
         <v>1.48</v>
@@ -9857,7 +9857,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR43" t="n">
         <v>1.76</v>
@@ -10508,7 +10508,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.33</v>
@@ -10726,7 +10726,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.09</v>
@@ -10947,7 +10947,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR48" t="n">
         <v>1.49</v>
@@ -12906,10 +12906,10 @@
         <v>1.67</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR57" t="n">
         <v>1.73</v>
@@ -13124,10 +13124,10 @@
         <v>1.75</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR58" t="n">
         <v>2.09</v>
@@ -13342,10 +13342,10 @@
         <v>0.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR59" t="n">
         <v>1.65</v>
@@ -13560,7 +13560,7 @@
         <v>0.33</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.17</v>
@@ -16612,10 +16612,10 @@
         <v>2</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR74" t="n">
         <v>1.63</v>
@@ -17048,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ76" t="n">
         <v>1</v>
@@ -17269,7 +17269,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR77" t="n">
         <v>1.94</v>
@@ -17484,10 +17484,10 @@
         <v>0.4</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR78" t="n">
         <v>1.64</v>
@@ -17920,7 +17920,7 @@
         <v>0.8</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ80" t="n">
         <v>1</v>
@@ -19882,7 +19882,7 @@
         <v>1.83</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.67</v>
@@ -20103,7 +20103,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR90" t="n">
         <v>1.47</v>
@@ -20318,7 +20318,7 @@
         <v>0.83</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ91" t="n">
         <v>1</v>
@@ -20536,7 +20536,7 @@
         <v>0.83</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ92" t="n">
         <v>1</v>
@@ -20757,7 +20757,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR93" t="n">
         <v>1.89</v>
@@ -21411,7 +21411,7 @@
         <v>2</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR96" t="n">
         <v>1.45</v>
@@ -22934,7 +22934,7 @@
         <v>2.33</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.83</v>
@@ -23806,7 +23806,7 @@
         <v>2</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.67</v>
@@ -24027,7 +24027,7 @@
         <v>2</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR108" t="n">
         <v>1.5</v>
@@ -24681,7 +24681,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR111" t="n">
         <v>1.95</v>
@@ -24899,7 +24899,7 @@
         <v>2</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR112" t="n">
         <v>1.44</v>
@@ -25114,7 +25114,7 @@
         <v>1.14</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.92</v>
@@ -25332,7 +25332,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.17</v>
@@ -25550,7 +25550,7 @@
         <v>1.57</v>
       </c>
       <c r="AP115" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.67</v>
@@ -27730,7 +27730,7 @@
         <v>0.67</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.36</v>
@@ -27948,7 +27948,7 @@
         <v>1.75</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.67</v>
@@ -28166,7 +28166,7 @@
         <v>0.57</v>
       </c>
       <c r="AP127" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.17</v>
@@ -28387,7 +28387,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR128" t="n">
         <v>1.73</v>
@@ -29038,7 +29038,7 @@
         <v>1.29</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.73</v>
@@ -29259,7 +29259,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR132" t="n">
         <v>1.68</v>
@@ -30131,7 +30131,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR136" t="n">
         <v>1.22</v>
@@ -30564,7 +30564,7 @@
         <v>0.57</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.36</v>
@@ -30782,7 +30782,7 @@
         <v>0.88</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.17</v>
@@ -31000,7 +31000,7 @@
         <v>1.13</v>
       </c>
       <c r="AP140" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.09</v>
@@ -31221,7 +31221,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR141" t="n">
         <v>1.53</v>
@@ -31436,7 +31436,7 @@
         <v>1.5</v>
       </c>
       <c r="AP142" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.33</v>
@@ -32965,7 +32965,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR149" t="n">
         <v>1.15</v>
@@ -34270,7 +34270,7 @@
         <v>1.67</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.33</v>
@@ -34488,7 +34488,7 @@
         <v>1</v>
       </c>
       <c r="AP156" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.09</v>
@@ -34709,7 +34709,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR157" t="n">
         <v>1.41</v>
@@ -34924,7 +34924,7 @@
         <v>0.22</v>
       </c>
       <c r="AP158" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.17</v>
@@ -35363,7 +35363,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR160" t="n">
         <v>1.79</v>
@@ -35578,7 +35578,7 @@
         <v>1.3</v>
       </c>
       <c r="AP161" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.33</v>
@@ -37540,7 +37540,7 @@
         <v>1.45</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.33</v>
@@ -37758,10 +37758,10 @@
         <v>1.3</v>
       </c>
       <c r="AP171" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR171" t="n">
         <v>1.32</v>
@@ -37979,7 +37979,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR172" t="n">
         <v>1.77</v>
@@ -38194,7 +38194,7 @@
         <v>0.2</v>
       </c>
       <c r="AP173" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ173" t="n">
         <v>0.17</v>
@@ -38848,10 +38848,10 @@
         <v>1.9</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR176" t="n">
         <v>1.71</v>
@@ -41107,6 +41107,878 @@
       </c>
       <c r="BP186" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>8205620</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>46052.625</v>
+      </c>
+      <c r="F187" t="n">
+        <v>24</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Dinamo Bucureşti</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="n">
+        <v>2</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R187" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S187" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T187" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V187" t="n">
+        <v>3</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X187" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BL187" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM187" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN187" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO187" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP187" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>8205612</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>46053.39583333334</v>
+      </c>
+      <c r="F188" t="n">
+        <v>24</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>3</v>
+      </c>
+      <c r="K188" t="n">
+        <v>4</v>
+      </c>
+      <c r="L188" t="n">
+        <v>2</v>
+      </c>
+      <c r="M188" t="n">
+        <v>3</v>
+      </c>
+      <c r="N188" t="n">
+        <v>5</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['12', '55']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['29', '33', '36']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="R188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S188" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V188" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X188" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BL188" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM188" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO188" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP188" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>8205723</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>46053.5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>24</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="R189" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S189" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="T189" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V189" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X189" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL189" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM189" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BN189" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO189" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP189" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>8205724</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>46053.625</v>
+      </c>
+      <c r="F190" t="n">
+        <v>24</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>2</v>
+      </c>
+      <c r="N190" t="n">
+        <v>2</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['67', '85']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R190" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S190" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V190" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X190" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL190" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM190" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BN190" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO190" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BP190" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP190"/>
+  <dimension ref="A1:BP192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.83</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.09</v>
@@ -3971,7 +3971,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.17</v>
@@ -6587,7 +6587,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR28" t="n">
         <v>1.47</v>
@@ -7241,7 +7241,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR31" t="n">
         <v>1.28</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.92</v>
@@ -10075,7 +10075,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR44" t="n">
         <v>1.34</v>
@@ -10944,7 +10944,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.83</v>
@@ -11601,7 +11601,7 @@
         <v>2</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR51" t="n">
         <v>1.23</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.67</v>
@@ -13781,7 +13781,7 @@
         <v>2</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR61" t="n">
         <v>1.38</v>
@@ -14432,7 +14432,7 @@
         <v>1.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ64" t="n">
         <v>1</v>
@@ -16833,7 +16833,7 @@
         <v>2</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR75" t="n">
         <v>1.53</v>
@@ -18577,7 +18577,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR83" t="n">
         <v>1.76</v>
@@ -19010,7 +19010,7 @@
         <v>1.4</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.92</v>
@@ -19228,7 +19228,7 @@
         <v>0.5</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.09</v>
@@ -20972,10 +20972,10 @@
         <v>1.6</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR94" t="n">
         <v>2.04</v>
@@ -21844,7 +21844,7 @@
         <v>1.67</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.67</v>
@@ -23155,7 +23155,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR104" t="n">
         <v>1.64</v>
@@ -24463,7 +24463,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR110" t="n">
         <v>1.32</v>
@@ -24678,7 +24678,7 @@
         <v>1</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.58</v>
@@ -26640,10 +26640,10 @@
         <v>0.8</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR120" t="n">
         <v>1.9</v>
@@ -27294,7 +27294,7 @@
         <v>1.71</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.33</v>
@@ -27733,7 +27733,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR125" t="n">
         <v>1.68</v>
@@ -29041,7 +29041,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR131" t="n">
         <v>1.5</v>
@@ -29474,7 +29474,7 @@
         <v>1.13</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ133" t="n">
         <v>1</v>
@@ -30567,7 +30567,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR138" t="n">
         <v>1.56</v>
@@ -31654,7 +31654,7 @@
         <v>1.11</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.33</v>
@@ -32093,7 +32093,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR145" t="n">
         <v>1.24</v>
@@ -32744,7 +32744,7 @@
         <v>1.78</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.67</v>
@@ -34055,7 +34055,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR154" t="n">
         <v>2.01</v>
@@ -35145,7 +35145,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR159" t="n">
         <v>1.47</v>
@@ -35360,7 +35360,7 @@
         <v>1.33</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.58</v>
@@ -37104,7 +37104,7 @@
         <v>1.9</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.83</v>
@@ -37325,7 +37325,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR169" t="n">
         <v>1.87</v>
@@ -37976,7 +37976,7 @@
         <v>0.6</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.83</v>
@@ -39069,7 +39069,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR177" t="n">
         <v>1.37</v>
@@ -40374,7 +40374,7 @@
         <v>1</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.17</v>
@@ -40595,7 +40595,7 @@
         <v>2</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR184" t="n">
         <v>1.6</v>
@@ -41979,6 +41979,442 @@
       </c>
       <c r="BP190" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>8205616</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>46054.51041666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>24</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>3</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>3</v>
+      </c>
+      <c r="L191" t="n">
+        <v>4</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="n">
+        <v>5</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['6', '25', '31', '87']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R191" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S191" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T191" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V191" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X191" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>28</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL191" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM191" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN191" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO191" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BP191" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>8205545</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>46054.625</v>
+      </c>
+      <c r="F192" t="n">
+        <v>24</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Csikszereda</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R192" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S192" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U192" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="V192" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X192" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL192" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM192" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BN192" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO192" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP192" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP192"/>
+  <dimension ref="A1:BP193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -3535,7 +3535,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.92</v>
@@ -7459,7 +7459,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR32" t="n">
         <v>2.42</v>
@@ -8982,7 +8982,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.67</v>
@@ -10729,7 +10729,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR47" t="n">
         <v>1.39</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.33</v>
@@ -13778,7 +13778,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.58</v>
@@ -14217,7 +14217,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR63" t="n">
         <v>1.4</v>
@@ -16394,7 +16394,7 @@
         <v>1.2</v>
       </c>
       <c r="AP73" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.33</v>
@@ -19231,7 +19231,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR86" t="n">
         <v>2.17</v>
@@ -21408,7 +21408,7 @@
         <v>1.2</v>
       </c>
       <c r="AP96" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.58</v>
@@ -22719,7 +22719,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR102" t="n">
         <v>1.76</v>
@@ -24896,7 +24896,7 @@
         <v>0.71</v>
       </c>
       <c r="AP112" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.83</v>
@@ -26207,7 +26207,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR118" t="n">
         <v>1.69</v>
@@ -27515,7 +27515,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR124" t="n">
         <v>1.32</v>
@@ -30346,7 +30346,7 @@
         <v>1.88</v>
       </c>
       <c r="AP137" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.67</v>
@@ -31003,7 +31003,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR140" t="n">
         <v>1.8</v>
@@ -33834,7 +33834,7 @@
         <v>2</v>
       </c>
       <c r="AP153" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.83</v>
@@ -34491,7 +34491,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR156" t="n">
         <v>1.61</v>
@@ -35796,7 +35796,7 @@
         <v>0.8</v>
       </c>
       <c r="AP162" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.17</v>
@@ -38633,7 +38633,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR175" t="n">
         <v>1.98</v>
@@ -41918,16 +41918,16 @@
         <v>3</v>
       </c>
       <c r="AV190" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW190" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX190" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY190" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ190" t="n">
         <v>12</v>
@@ -42415,6 +42415,224 @@
       </c>
       <c r="BP192" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>8205721</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>46055.5625</v>
+      </c>
+      <c r="F193" t="n">
+        <v>24</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Oţelul Galaţi</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>3</v>
+      </c>
+      <c r="R193" t="n">
+        <v>2</v>
+      </c>
+      <c r="S193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V193" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X193" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BL193" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM193" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN193" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO193" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP193" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.17</v>
@@ -2881,7 +2881,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.58</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.33</v>
@@ -4625,7 +4625,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR19" t="n">
         <v>0.97</v>
@@ -5279,7 +5279,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR22" t="n">
         <v>1.2</v>
@@ -5715,7 +5715,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR24" t="n">
         <v>1.17</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.58</v>
@@ -7020,7 +7020,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.83</v>
@@ -8328,7 +8328,7 @@
         <v>2</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -8767,7 +8767,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR38" t="n">
         <v>1.72</v>
@@ -8985,7 +8985,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR39" t="n">
         <v>1.04</v>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR40" t="n">
         <v>1.24</v>
@@ -9854,7 +9854,7 @@
         <v>0.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.83</v>
@@ -11165,7 +11165,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR49" t="n">
         <v>1.71</v>
@@ -11383,7 +11383,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR50" t="n">
         <v>1.61</v>
@@ -11816,7 +11816,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.67</v>
@@ -12473,7 +12473,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR55" t="n">
         <v>2.34</v>
@@ -12688,7 +12688,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ56" t="n">
         <v>1</v>
@@ -14650,10 +14650,10 @@
         <v>2.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR65" t="n">
         <v>1.39</v>
@@ -14871,7 +14871,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR66" t="n">
         <v>1.69</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR71" t="n">
         <v>1.47</v>
@@ -16176,7 +16176,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.67</v>
@@ -18138,10 +18138,10 @@
         <v>1.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR81" t="n">
         <v>1.72</v>
@@ -18792,10 +18792,10 @@
         <v>2.2</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR84" t="n">
         <v>1.59</v>
@@ -19013,7 +19013,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR85" t="n">
         <v>1.78</v>
@@ -19664,7 +19664,7 @@
         <v>0.67</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.17</v>
@@ -21847,7 +21847,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR98" t="n">
         <v>2.05</v>
@@ -22062,7 +22062,7 @@
         <v>1.6</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.33</v>
@@ -22283,7 +22283,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR100" t="n">
         <v>1.59</v>
@@ -22937,7 +22937,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR103" t="n">
         <v>1.58</v>
@@ -23152,7 +23152,7 @@
         <v>0.25</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.33</v>
@@ -23370,7 +23370,7 @@
         <v>0.8</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.17</v>
@@ -25117,7 +25117,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR113" t="n">
         <v>1.59</v>
@@ -25553,7 +25553,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR115" t="n">
         <v>1.6</v>
@@ -25768,7 +25768,7 @@
         <v>0.86</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.33</v>
@@ -26204,7 +26204,7 @@
         <v>0.83</v>
       </c>
       <c r="AP118" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.08</v>
@@ -26425,7 +26425,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR119" t="n">
         <v>1.59</v>
@@ -26858,7 +26858,7 @@
         <v>1.83</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.33</v>
@@ -27076,7 +27076,7 @@
         <v>0.29</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.17</v>
@@ -27512,7 +27512,7 @@
         <v>1.14</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.08</v>
@@ -27951,7 +27951,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR126" t="n">
         <v>1.64</v>
@@ -28602,7 +28602,7 @@
         <v>1.13</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.33</v>
@@ -28823,7 +28823,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR130" t="n">
         <v>1.47</v>
@@ -29913,7 +29913,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR135" t="n">
         <v>2.02</v>
@@ -31218,7 +31218,7 @@
         <v>1.13</v>
       </c>
       <c r="AP141" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.58</v>
@@ -31872,7 +31872,7 @@
         <v>0.25</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.17</v>
@@ -32090,7 +32090,7 @@
         <v>1.5</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.58</v>
@@ -32311,7 +32311,7 @@
         <v>2</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR146" t="n">
         <v>1.51</v>
@@ -32529,7 +32529,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR147" t="n">
         <v>1.5</v>
@@ -32962,7 +32962,7 @@
         <v>0.67</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.83</v>
@@ -33837,7 +33837,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR153" t="n">
         <v>1.46</v>
@@ -34706,7 +34706,7 @@
         <v>1.78</v>
       </c>
       <c r="AP157" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.83</v>
@@ -35142,7 +35142,7 @@
         <v>1.44</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.58</v>
@@ -36017,7 +36017,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR163" t="n">
         <v>1.32</v>
@@ -36235,7 +36235,7 @@
         <v>2</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR164" t="n">
         <v>1.51</v>
@@ -36668,7 +36668,7 @@
         <v>1</v>
       </c>
       <c r="AP166" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ166" t="n">
         <v>1</v>
@@ -36886,7 +36886,7 @@
         <v>0.9</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ167" t="n">
         <v>1</v>
@@ -37107,7 +37107,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR168" t="n">
         <v>1.9</v>
@@ -39066,7 +39066,7 @@
         <v>1.6</v>
       </c>
       <c r="AP177" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.58</v>
@@ -39287,7 +39287,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR178" t="n">
         <v>1.36</v>
@@ -39502,7 +39502,7 @@
         <v>1.55</v>
       </c>
       <c r="AP179" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.67</v>
@@ -39720,10 +39720,10 @@
         <v>1</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR180" t="n">
         <v>1.2</v>
@@ -40156,7 +40156,7 @@
         <v>0.82</v>
       </c>
       <c r="AP182" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ182" t="n">
         <v>1</v>
@@ -40813,7 +40813,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR185" t="n">
         <v>1.69</v>
@@ -42351,13 +42351,13 @@
         <v>2.83</v>
       </c>
       <c r="AU192" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV192" t="n">
         <v>6</v>
       </c>
       <c r="AW192" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX192" t="n">
         <v>8</v>
@@ -42633,6 +42633,660 @@
       </c>
       <c r="BP193" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>8205618</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>46056.45833333334</v>
+      </c>
+      <c r="F194" t="n">
+        <v>25</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R194" t="n">
+        <v>2</v>
+      </c>
+      <c r="S194" t="n">
+        <v>5</v>
+      </c>
+      <c r="T194" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X194" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BL194" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM194" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN194" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO194" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP194" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>8205621</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>46056.54166666666</v>
+      </c>
+      <c r="F195" t="n">
+        <v>25</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="n">
+        <v>3</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="n">
+        <v>4</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['12', '64', '84']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R195" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S195" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V195" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X195" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL195" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM195" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BN195" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO195" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="BP195" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>8205727</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>46056.64583333334</v>
+      </c>
+      <c r="F196" t="n">
+        <v>25</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>3</v>
+      </c>
+      <c r="N196" t="n">
+        <v>3</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['26', '69', '83']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R196" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S196" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V196" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X196" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BL196" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM196" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN196" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO196" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BP196" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP196"/>
+  <dimension ref="A1:BP197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.83</v>
@@ -3971,7 +3971,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ18" t="n">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AR28" t="n">
         <v>1.47</v>
@@ -7892,7 +7892,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.67</v>
@@ -11380,7 +11380,7 @@
         <v>2.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.92</v>
@@ -11601,7 +11601,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AR51" t="n">
         <v>1.23</v>
@@ -15086,7 +15086,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.17</v>
@@ -18577,7 +18577,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AR83" t="n">
         <v>1.76</v>
@@ -19446,7 +19446,7 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.33</v>
@@ -22498,7 +22498,7 @@
         <v>1</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.33</v>
@@ -23155,7 +23155,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AR104" t="n">
         <v>1.64</v>
@@ -24460,7 +24460,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.58</v>
@@ -26643,7 +26643,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AR120" t="n">
         <v>1.9</v>
@@ -27733,7 +27733,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AR125" t="n">
         <v>1.68</v>
@@ -30128,7 +30128,7 @@
         <v>0.63</v>
       </c>
       <c r="AP136" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.83</v>
@@ -30567,7 +30567,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AR138" t="n">
         <v>1.56</v>
@@ -33180,7 +33180,7 @@
         <v>1</v>
       </c>
       <c r="AP150" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ150" t="n">
         <v>1</v>
@@ -34055,7 +34055,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AR154" t="n">
         <v>2.01</v>
@@ -36014,7 +36014,7 @@
         <v>0.8</v>
       </c>
       <c r="AP163" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.85</v>
@@ -37325,7 +37325,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AR169" t="n">
         <v>1.87</v>
@@ -39284,7 +39284,7 @@
         <v>1.55</v>
       </c>
       <c r="AP178" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.54</v>
@@ -40595,7 +40595,7 @@
         <v>2</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AR184" t="n">
         <v>1.6</v>
@@ -42339,7 +42339,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ192" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AR192" t="n">
         <v>1.86</v>
@@ -43287,6 +43287,224 @@
       </c>
       <c r="BP196" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>8205720</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="F197" t="n">
+        <v>25</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Metaloglobus</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Csikszereda</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R197" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S197" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V197" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X197" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL197" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM197" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO197" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BP197" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP197"/>
+  <dimension ref="A1:BP198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.58</v>
@@ -3753,7 +3753,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.83</v>
@@ -8110,7 +8110,7 @@
         <v>2</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ35" t="n">
         <v>1</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.85</v>
@@ -12037,7 +12037,7 @@
         <v>2</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR53" t="n">
         <v>1.43</v>
@@ -14868,7 +14868,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.54</v>
@@ -15089,7 +15089,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR67" t="n">
         <v>1.66</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.54</v>
@@ -19667,7 +19667,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR88" t="n">
         <v>1.3</v>
@@ -21629,7 +21629,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR97" t="n">
         <v>1.43</v>
@@ -22716,7 +22716,7 @@
         <v>0.4</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.08</v>
@@ -23373,7 +23373,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR105" t="n">
         <v>1.49</v>
@@ -25335,7 +25335,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR114" t="n">
         <v>1.67</v>
@@ -25986,7 +25986,7 @@
         <v>0.33</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.17</v>
@@ -28169,7 +28169,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR127" t="n">
         <v>1.51</v>
@@ -29256,7 +29256,7 @@
         <v>1.63</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.83</v>
@@ -30785,7 +30785,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR139" t="n">
         <v>1.5</v>
@@ -33401,7 +33401,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR151" t="n">
         <v>1.8</v>
@@ -33616,7 +33616,7 @@
         <v>1.11</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ152" t="n">
         <v>1</v>
@@ -35799,7 +35799,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR162" t="n">
         <v>1.49</v>
@@ -36450,7 +36450,7 @@
         <v>1.7</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.67</v>
@@ -40377,7 +40377,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR183" t="n">
         <v>1.84</v>
@@ -40810,7 +40810,7 @@
         <v>1.73</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.92</v>
@@ -43505,6 +43505,224 @@
       </c>
       <c r="BP197" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>8205619</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>46057.54166666666</v>
+      </c>
+      <c r="F198" t="n">
+        <v>25</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R198" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S198" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V198" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X198" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL198" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM198" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BN198" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO198" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP198" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP198"/>
+  <dimension ref="A1:BP199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,7 +2445,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.08</v>
@@ -5497,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR23" t="n">
         <v>1.2</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.17</v>
@@ -7895,7 +7895,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR34" t="n">
         <v>1.69</v>
@@ -10944,7 +10944,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.83</v>
@@ -11819,7 +11819,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR52" t="n">
         <v>1.67</v>
@@ -14432,7 +14432,7 @@
         <v>1.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ64" t="n">
         <v>1</v>
@@ -16179,7 +16179,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR72" t="n">
         <v>1.67</v>
@@ -18359,7 +18359,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR82" t="n">
         <v>1.62</v>
@@ -19010,7 +19010,7 @@
         <v>1.4</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.85</v>
@@ -19885,7 +19885,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR89" t="n">
         <v>1.79</v>
@@ -21844,7 +21844,7 @@
         <v>1.67</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.54</v>
@@ -23809,7 +23809,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR107" t="n">
         <v>1.62</v>
@@ -26640,7 +26640,7 @@
         <v>0.8</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.54</v>
@@ -27294,7 +27294,7 @@
         <v>1.71</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.33</v>
@@ -30349,7 +30349,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR137" t="n">
         <v>1.46</v>
@@ -31654,7 +31654,7 @@
         <v>1.11</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.33</v>
@@ -32747,7 +32747,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR148" t="n">
         <v>2.03</v>
@@ -35360,7 +35360,7 @@
         <v>1.33</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.58</v>
@@ -36453,7 +36453,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR165" t="n">
         <v>1.68</v>
@@ -37976,7 +37976,7 @@
         <v>0.6</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.83</v>
@@ -39505,7 +39505,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR179" t="n">
         <v>1.49</v>
@@ -42118,7 +42118,7 @@
         <v>1.73</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.58</v>
@@ -43723,6 +43723,224 @@
       </c>
       <c r="BP198" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>8205689</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>46057.64583333334</v>
+      </c>
+      <c r="F199" t="n">
+        <v>25</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Dinamo Bucureşti</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="n">
+        <v>2</v>
+      </c>
+      <c r="L199" t="n">
+        <v>2</v>
+      </c>
+      <c r="M199" t="n">
+        <v>3</v>
+      </c>
+      <c r="N199" t="n">
+        <v>5</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['25', '71']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['45', '75', '89']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="R199" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S199" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T199" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V199" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X199" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL199" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM199" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN199" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO199" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BP199" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP199"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.83</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.54</v>
@@ -3535,7 +3535,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.83</v>
@@ -7459,7 +7459,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR32" t="n">
         <v>2.42</v>
@@ -7677,7 +7677,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR33" t="n">
         <v>2.3</v>
@@ -8546,7 +8546,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.83</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.85</v>
@@ -10293,7 +10293,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR45" t="n">
         <v>1.68</v>
@@ -10729,7 +10729,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR47" t="n">
         <v>1.39</v>
@@ -12252,7 +12252,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ54" t="n">
         <v>1</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.54</v>
@@ -14217,7 +14217,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR63" t="n">
         <v>1.4</v>
@@ -15307,7 +15307,7 @@
         <v>2</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR68" t="n">
         <v>1.4</v>
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ69" t="n">
         <v>1</v>
@@ -18356,7 +18356,7 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.77</v>
@@ -19228,10 +19228,10 @@
         <v>0.5</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR86" t="n">
         <v>2.17</v>
@@ -19449,7 +19449,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR87" t="n">
         <v>1.52</v>
@@ -20972,7 +20972,7 @@
         <v>1.6</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.58</v>
@@ -22065,7 +22065,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR99" t="n">
         <v>1.28</v>
@@ -22280,7 +22280,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.85</v>
@@ -22719,7 +22719,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR102" t="n">
         <v>1.76</v>
@@ -24678,7 +24678,7 @@
         <v>1</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.58</v>
@@ -26207,7 +26207,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR118" t="n">
         <v>1.69</v>
@@ -26422,7 +26422,7 @@
         <v>2.43</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.92</v>
@@ -26861,7 +26861,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR121" t="n">
         <v>1.4</v>
@@ -27297,7 +27297,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR123" t="n">
         <v>1.83</v>
@@ -27515,7 +27515,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR124" t="n">
         <v>1.32</v>
@@ -28384,7 +28384,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.58</v>
@@ -29474,7 +29474,7 @@
         <v>1.13</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ133" t="n">
         <v>1</v>
@@ -31003,7 +31003,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR140" t="n">
         <v>1.8</v>
@@ -31439,7 +31439,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR142" t="n">
         <v>1.46</v>
@@ -32744,7 +32744,7 @@
         <v>1.78</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.77</v>
@@ -33398,7 +33398,7 @@
         <v>0.78</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.31</v>
@@ -34273,7 +34273,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR155" t="n">
         <v>1.47</v>
@@ -34491,7 +34491,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR156" t="n">
         <v>1.61</v>
@@ -37104,7 +37104,7 @@
         <v>1.9</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.92</v>
@@ -37322,7 +37322,7 @@
         <v>0.44</v>
       </c>
       <c r="AP169" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ169" t="n">
         <v>0.54</v>
@@ -38415,7 +38415,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR174" t="n">
         <v>1.43</v>
@@ -38633,7 +38633,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR175" t="n">
         <v>1.98</v>
@@ -39938,10 +39938,10 @@
         <v>1.45</v>
       </c>
       <c r="AP181" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR181" t="n">
         <v>1.89</v>
@@ -40374,7 +40374,7 @@
         <v>1</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.31</v>
@@ -42336,7 +42336,7 @@
         <v>0.36</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ192" t="n">
         <v>0.54</v>
@@ -42557,7 +42557,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR193" t="n">
         <v>1.5</v>
@@ -43941,6 +43941,442 @@
       </c>
       <c r="BP199" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>8205594</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>46058.54166666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>25</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Oţelul Galaţi</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R200" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S200" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T200" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V200" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X200" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BL200" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN200" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO200" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="BP200" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>8205725</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>46058.64583333334</v>
+      </c>
+      <c r="F201" t="n">
+        <v>25</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="n">
+        <v>2</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="n">
+        <v>3</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['42', '74']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R201" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S201" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="V201" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X201" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL201" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM201" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN201" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO201" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP201" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.92</v>
@@ -1573,7 +1573,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.85</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.77</v>
@@ -2663,7 +2663,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.31</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.54</v>
@@ -4622,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.92</v>
@@ -4843,7 +4843,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR20" t="n">
         <v>2.17</v>
@@ -5061,7 +5061,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR21" t="n">
         <v>2.49</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.54</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.77</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.85</v>
@@ -5933,7 +5933,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR25" t="n">
         <v>0.83</v>
@@ -6151,7 +6151,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR26" t="n">
         <v>1.02</v>
@@ -6369,7 +6369,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR27" t="n">
         <v>1.18</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.54</v>
@@ -6805,7 +6805,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR29" t="n">
         <v>1.38</v>
@@ -7023,7 +7023,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR30" t="n">
         <v>1.79</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.58</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.23</v>
@@ -8113,7 +8113,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR35" t="n">
         <v>1.63</v>
@@ -8549,7 +8549,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR37" t="n">
         <v>1.59</v>
@@ -8982,7 +8982,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.54</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.92</v>
@@ -9418,10 +9418,10 @@
         <v>0.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR41" t="n">
         <v>2.34</v>
@@ -9639,7 +9639,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR42" t="n">
         <v>1.48</v>
@@ -9857,7 +9857,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR43" t="n">
         <v>1.76</v>
@@ -10072,7 +10072,7 @@
         <v>2</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.58</v>
@@ -10290,7 +10290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.23</v>
@@ -10508,10 +10508,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR46" t="n">
         <v>1.88</v>
@@ -10726,7 +10726,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ47" t="n">
         <v>1</v>
@@ -10947,7 +10947,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR48" t="n">
         <v>1.49</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.54</v>
@@ -12034,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="AP53" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.31</v>
@@ -12691,7 +12691,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR56" t="n">
         <v>1.67</v>
@@ -12906,10 +12906,10 @@
         <v>1.67</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR57" t="n">
         <v>1.73</v>
@@ -13124,10 +13124,10 @@
         <v>1.75</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR58" t="n">
         <v>2.09</v>
@@ -13345,7 +13345,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR59" t="n">
         <v>1.65</v>
@@ -13560,10 +13560,10 @@
         <v>0.33</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR60" t="n">
         <v>1.5</v>
@@ -13778,7 +13778,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.58</v>
@@ -13996,10 +13996,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR62" t="n">
         <v>2.11</v>
@@ -14214,7 +14214,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63" t="n">
         <v>1</v>
@@ -15304,7 +15304,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.23</v>
@@ -15525,7 +15525,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR69" t="n">
         <v>1.64</v>
@@ -15740,10 +15740,10 @@
         <v>1.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR70" t="n">
         <v>1.45</v>
@@ -16394,10 +16394,10 @@
         <v>1.2</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR73" t="n">
         <v>1.36</v>
@@ -16612,10 +16612,10 @@
         <v>2</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR74" t="n">
         <v>1.63</v>
@@ -16830,7 +16830,7 @@
         <v>2</v>
       </c>
       <c r="AP75" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.58</v>
@@ -17048,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ76" t="n">
         <v>1</v>
@@ -17266,10 +17266,10 @@
         <v>1.25</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR77" t="n">
         <v>1.94</v>
@@ -17484,10 +17484,10 @@
         <v>0.4</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR78" t="n">
         <v>1.64</v>
@@ -17702,10 +17702,10 @@
         <v>0.25</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR79" t="n">
         <v>1.4</v>
@@ -17923,7 +17923,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR80" t="n">
         <v>1.69</v>
@@ -19882,7 +19882,7 @@
         <v>1.83</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.77</v>
@@ -20100,10 +20100,10 @@
         <v>1.67</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR90" t="n">
         <v>1.47</v>
@@ -20318,7 +20318,7 @@
         <v>0.83</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ91" t="n">
         <v>1</v>
@@ -20536,10 +20536,10 @@
         <v>0.83</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR92" t="n">
         <v>1.65</v>
@@ -20754,10 +20754,10 @@
         <v>0.83</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR93" t="n">
         <v>1.89</v>
@@ -21190,10 +21190,10 @@
         <v>0.4</v>
       </c>
       <c r="AP95" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR95" t="n">
         <v>1.43</v>
@@ -21408,10 +21408,10 @@
         <v>1.2</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR96" t="n">
         <v>1.45</v>
@@ -21626,7 +21626,7 @@
         <v>0.75</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.31</v>
@@ -22501,7 +22501,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR101" t="n">
         <v>1.4</v>
@@ -23588,7 +23588,7 @@
         <v>1.14</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ106" t="n">
         <v>1</v>
@@ -23806,7 +23806,7 @@
         <v>2</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.77</v>
@@ -24024,10 +24024,10 @@
         <v>1.43</v>
       </c>
       <c r="AP108" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR108" t="n">
         <v>1.5</v>
@@ -24242,10 +24242,10 @@
         <v>0.71</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR109" t="n">
         <v>1.91</v>
@@ -24681,7 +24681,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR111" t="n">
         <v>1.95</v>
@@ -24896,10 +24896,10 @@
         <v>0.71</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR112" t="n">
         <v>1.44</v>
@@ -25114,7 +25114,7 @@
         <v>1.14</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.85</v>
@@ -25550,7 +25550,7 @@
         <v>1.57</v>
       </c>
       <c r="AP115" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.54</v>
@@ -25771,7 +25771,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR116" t="n">
         <v>1.22</v>
@@ -25989,7 +25989,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR117" t="n">
         <v>1.68</v>
@@ -27079,7 +27079,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR122" t="n">
         <v>1.16</v>
@@ -27948,7 +27948,7 @@
         <v>1.75</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.54</v>
@@ -28166,7 +28166,7 @@
         <v>0.57</v>
       </c>
       <c r="AP127" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.31</v>
@@ -28387,7 +28387,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR128" t="n">
         <v>1.73</v>
@@ -28605,7 +28605,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR129" t="n">
         <v>1.59</v>
@@ -28820,7 +28820,7 @@
         <v>1</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ130" t="n">
         <v>0.85</v>
@@ -29038,7 +29038,7 @@
         <v>1.29</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.58</v>
@@ -29259,7 +29259,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR132" t="n">
         <v>1.68</v>
@@ -29692,10 +29692,10 @@
         <v>1</v>
       </c>
       <c r="AP134" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR134" t="n">
         <v>1.46</v>
@@ -29910,7 +29910,7 @@
         <v>2.25</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.92</v>
@@ -30131,7 +30131,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR136" t="n">
         <v>1.22</v>
@@ -30346,7 +30346,7 @@
         <v>1.88</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.77</v>
@@ -30564,7 +30564,7 @@
         <v>0.57</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.54</v>
@@ -30782,7 +30782,7 @@
         <v>0.88</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.31</v>
@@ -31221,7 +31221,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR141" t="n">
         <v>1.53</v>
@@ -31436,7 +31436,7 @@
         <v>1.5</v>
       </c>
       <c r="AP142" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.23</v>
@@ -31657,7 +31657,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR143" t="n">
         <v>1.83</v>
@@ -31875,7 +31875,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR144" t="n">
         <v>1.33</v>
@@ -32308,7 +32308,7 @@
         <v>0.89</v>
       </c>
       <c r="AP146" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.85</v>
@@ -32526,7 +32526,7 @@
         <v>1.56</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.54</v>
@@ -32965,7 +32965,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR149" t="n">
         <v>1.15</v>
@@ -33183,7 +33183,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR150" t="n">
         <v>1.26</v>
@@ -33834,7 +33834,7 @@
         <v>2</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.92</v>
@@ -34052,7 +34052,7 @@
         <v>0.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.54</v>
@@ -34270,7 +34270,7 @@
         <v>1.67</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.23</v>
@@ -34488,7 +34488,7 @@
         <v>1</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ156" t="n">
         <v>1</v>
@@ -34709,7 +34709,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR157" t="n">
         <v>1.41</v>
@@ -34927,7 +34927,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR158" t="n">
         <v>1.67</v>
@@ -35363,7 +35363,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR160" t="n">
         <v>1.79</v>
@@ -35578,10 +35578,10 @@
         <v>1.3</v>
       </c>
       <c r="AP161" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR161" t="n">
         <v>1.42</v>
@@ -35796,7 +35796,7 @@
         <v>0.8</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.31</v>
@@ -36232,7 +36232,7 @@
         <v>1.7</v>
       </c>
       <c r="AP164" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.54</v>
@@ -36889,7 +36889,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR167" t="n">
         <v>1.17</v>
@@ -37540,10 +37540,10 @@
         <v>1.45</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR170" t="n">
         <v>1.42</v>
@@ -37758,10 +37758,10 @@
         <v>1.3</v>
       </c>
       <c r="AP171" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR171" t="n">
         <v>1.32</v>
@@ -37979,7 +37979,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR172" t="n">
         <v>1.77</v>
@@ -38194,10 +38194,10 @@
         <v>0.2</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR173" t="n">
         <v>1.61</v>
@@ -38412,7 +38412,7 @@
         <v>1.6</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.23</v>
@@ -38630,7 +38630,7 @@
         <v>1.2</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ175" t="n">
         <v>1</v>
@@ -38851,7 +38851,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR176" t="n">
         <v>1.71</v>
@@ -40159,7 +40159,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR182" t="n">
         <v>1.34</v>
@@ -40592,7 +40592,7 @@
         <v>0.4</v>
       </c>
       <c r="AP184" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ184" t="n">
         <v>0.54</v>
@@ -41028,10 +41028,10 @@
         <v>0.18</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ186" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR186" t="n">
         <v>1.91</v>
@@ -41464,10 +41464,10 @@
         <v>0.64</v>
       </c>
       <c r="AP188" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR188" t="n">
         <v>1.3</v>
@@ -41682,10 +41682,10 @@
         <v>1.45</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR189" t="n">
         <v>1.38</v>
@@ -41900,10 +41900,10 @@
         <v>1.73</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR190" t="n">
         <v>1.64</v>
@@ -42554,7 +42554,7 @@
         <v>1.09</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ193" t="n">
         <v>1</v>
@@ -44377,6 +44377,1532 @@
       </c>
       <c r="BP201" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>8205623</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>46059.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>26</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>3</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="n">
+        <v>4</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['31', '80', '83']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S202" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X202" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL202" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM202" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BN202" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO202" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="BP202" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>8205728</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>46059.625</v>
+      </c>
+      <c r="F203" t="n">
+        <v>26</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>2</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R203" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S203" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="V203" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X203" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BL203" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM203" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN203" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO203" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BP203" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>8205622</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>46060.33333333334</v>
+      </c>
+      <c r="F204" t="n">
+        <v>26</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
+      <c r="K204" t="n">
+        <v>2</v>
+      </c>
+      <c r="L204" t="n">
+        <v>2</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>3</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['43', '90+3']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S204" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="T204" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V204" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X204" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BL204" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM204" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO204" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BP204" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>8205596</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>46060.41666666666</v>
+      </c>
+      <c r="F205" t="n">
+        <v>26</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Csikszereda</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>2</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>2</v>
+      </c>
+      <c r="L205" t="n">
+        <v>2</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>2</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['13', '35']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R205" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S205" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="T205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V205" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X205" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BL205" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM205" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO205" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="BP205" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>8205595</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>46060.625</v>
+      </c>
+      <c r="F206" t="n">
+        <v>26</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>3</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
+      <c r="K206" t="n">
+        <v>4</v>
+      </c>
+      <c r="L206" t="n">
+        <v>3</v>
+      </c>
+      <c r="M206" t="n">
+        <v>2</v>
+      </c>
+      <c r="N206" t="n">
+        <v>5</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['5', '10', '43']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['29', '83']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R206" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S206" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T206" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V206" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X206" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BL206" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM206" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BN206" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO206" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP206" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>8205587</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>46061.5</v>
+      </c>
+      <c r="F207" t="n">
+        <v>26</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Metaloglobus</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>2</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2</v>
+      </c>
+      <c r="L207" t="n">
+        <v>3</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>3</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['14', '41', '84']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R207" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S207" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U207" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V207" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X207" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL207" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM207" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BN207" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO207" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BP207" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>8205667</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>46061.625</v>
+      </c>
+      <c r="F208" t="n">
+        <v>26</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Oţelul Galaţi</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>2</v>
+      </c>
+      <c r="K208" t="n">
+        <v>3</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="n">
+        <v>4</v>
+      </c>
+      <c r="N208" t="n">
+        <v>5</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['31', '43', '66', '79']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="R208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S208" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V208" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X208" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL208" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM208" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN208" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO208" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="BP208" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP208"/>
+  <dimension ref="A1:BP209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.23</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.46</v>
@@ -7241,7 +7241,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR31" t="n">
         <v>1.28</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.46</v>
@@ -10075,7 +10075,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR44" t="n">
         <v>1.34</v>
@@ -13342,7 +13342,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.77</v>
@@ -13781,7 +13781,7 @@
         <v>2</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR61" t="n">
         <v>1.38</v>
@@ -16833,7 +16833,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR75" t="n">
         <v>1.53</v>
@@ -17920,7 +17920,7 @@
         <v>0.8</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.92</v>
@@ -20975,7 +20975,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR94" t="n">
         <v>2.04</v>
@@ -22934,7 +22934,7 @@
         <v>2.33</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.92</v>
@@ -24463,7 +24463,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR110" t="n">
         <v>1.32</v>
@@ -25332,7 +25332,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.31</v>
@@ -27730,7 +27730,7 @@
         <v>0.67</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.54</v>
@@ -29041,7 +29041,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR131" t="n">
         <v>1.5</v>
@@ -31000,7 +31000,7 @@
         <v>1.13</v>
       </c>
       <c r="AP140" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ140" t="n">
         <v>1</v>
@@ -32093,7 +32093,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR145" t="n">
         <v>1.24</v>
@@ -34924,7 +34924,7 @@
         <v>0.22</v>
       </c>
       <c r="AP158" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.15</v>
@@ -35145,7 +35145,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR159" t="n">
         <v>1.47</v>
@@ -38848,7 +38848,7 @@
         <v>1.9</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.69</v>
@@ -39069,7 +39069,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR177" t="n">
         <v>1.37</v>
@@ -41246,7 +41246,7 @@
         <v>1</v>
       </c>
       <c r="AP187" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ187" t="n">
         <v>1</v>
@@ -42121,7 +42121,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR191" t="n">
         <v>1.75</v>
@@ -45903,6 +45903,224 @@
       </c>
       <c r="BP208" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>8205660</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>46062.625</v>
+      </c>
+      <c r="F209" t="n">
+        <v>26</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Dinamo Bucureşti</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="n">
+        <v>2</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R209" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S209" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T209" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V209" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X209" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL209" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM209" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BN209" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO209" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BP209" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -45627,13 +45627,13 @@
         <v>5</v>
       </c>
       <c r="AW207" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX207" t="n">
         <v>7</v>
       </c>
       <c r="AY207" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ207" t="n">
         <v>12</v>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP209"/>
+  <dimension ref="A1:BP210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2881,7 +2881,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.46</v>
@@ -5279,7 +5279,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR22" t="n">
         <v>1.2</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.46</v>
@@ -8985,7 +8985,7 @@
         <v>2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR39" t="n">
         <v>1.04</v>
@@ -9854,7 +9854,7 @@
         <v>0.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.77</v>
@@ -12473,7 +12473,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR55" t="n">
         <v>2.34</v>
@@ -14871,7 +14871,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR66" t="n">
         <v>1.69</v>
@@ -16176,7 +16176,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.77</v>
@@ -18141,7 +18141,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR81" t="n">
         <v>1.72</v>
@@ -18792,7 +18792,7 @@
         <v>2.2</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.92</v>
@@ -21847,7 +21847,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR98" t="n">
         <v>2.05</v>
@@ -23370,7 +23370,7 @@
         <v>0.8</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.31</v>
@@ -25553,7 +25553,7 @@
         <v>1</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR115" t="n">
         <v>1.6</v>
@@ -26858,7 +26858,7 @@
         <v>1.83</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.23</v>
@@ -27512,7 +27512,7 @@
         <v>1.14</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ124" t="n">
         <v>1</v>
@@ -27951,7 +27951,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR126" t="n">
         <v>1.64</v>
@@ -31872,7 +31872,7 @@
         <v>0.25</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.15</v>
@@ -32529,7 +32529,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR147" t="n">
         <v>1.5</v>
@@ -34706,7 +34706,7 @@
         <v>1.78</v>
       </c>
       <c r="AP157" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.69</v>
@@ -36235,7 +36235,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR164" t="n">
         <v>1.51</v>
@@ -39066,7 +39066,7 @@
         <v>1.6</v>
       </c>
       <c r="AP177" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.54</v>
@@ -39287,7 +39287,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR178" t="n">
         <v>1.36</v>
@@ -40156,7 +40156,7 @@
         <v>0.82</v>
       </c>
       <c r="AP182" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.92</v>
@@ -42772,7 +42772,7 @@
         <v>0.92</v>
       </c>
       <c r="AP194" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ194" t="n">
         <v>0.85</v>
@@ -42993,7 +42993,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR195" t="n">
         <v>1.19</v>
@@ -46120,6 +46120,224 @@
         <v>3.72</v>
       </c>
       <c r="BP209" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>8205625</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>46066.625</v>
+      </c>
+      <c r="F210" t="n">
+        <v>27</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="n">
+        <v>2</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="n">
+        <v>3</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['65', '88']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R210" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S210" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V210" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X210" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BL210" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM210" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN210" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO210" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="BP210" t="n">
         <v>1.19</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP210"/>
+  <dimension ref="A1:BP215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.69</v>
@@ -1137,7 +1137,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.54</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.43</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.46</v>
@@ -3317,7 +3317,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ18" t="n">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR19" t="n">
         <v>0.97</v>
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.77</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.69</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.15</v>
@@ -6587,7 +6587,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR28" t="n">
         <v>1.47</v>
@@ -6805,7 +6805,7 @@
         <v>2</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR29" t="n">
         <v>1.38</v>
@@ -7459,7 +7459,7 @@
         <v>1</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR32" t="n">
         <v>2.42</v>
@@ -7677,7 +7677,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR33" t="n">
         <v>2.3</v>
@@ -7892,7 +7892,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.77</v>
@@ -8110,7 +8110,7 @@
         <v>2</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.92</v>
@@ -8328,7 +8328,7 @@
         <v>2</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -8546,7 +8546,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.77</v>
@@ -9203,7 +9203,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR40" t="n">
         <v>1.24</v>
@@ -10293,7 +10293,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR45" t="n">
         <v>1.68</v>
@@ -10511,7 +10511,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR46" t="n">
         <v>1.88</v>
@@ -10729,7 +10729,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR47" t="n">
         <v>1.39</v>
@@ -10944,7 +10944,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.69</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.85</v>
@@ -11380,10 +11380,10 @@
         <v>2.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR50" t="n">
         <v>1.61</v>
@@ -11601,7 +11601,7 @@
         <v>2</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR51" t="n">
         <v>1.23</v>
@@ -11816,7 +11816,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.77</v>
@@ -12252,7 +12252,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ54" t="n">
         <v>1</v>
@@ -13999,7 +13999,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR62" t="n">
         <v>2.11</v>
@@ -14217,7 +14217,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR63" t="n">
         <v>1.4</v>
@@ -14432,7 +14432,7 @@
         <v>1.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ64" t="n">
         <v>1</v>
@@ -14650,10 +14650,10 @@
         <v>2.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR65" t="n">
         <v>1.39</v>
@@ -14868,7 +14868,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.43</v>
@@ -15086,7 +15086,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.31</v>
@@ -15307,7 +15307,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR68" t="n">
         <v>1.4</v>
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.92</v>
@@ -15743,7 +15743,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR70" t="n">
         <v>1.45</v>
@@ -16397,7 +16397,7 @@
         <v>2</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR73" t="n">
         <v>1.36</v>
@@ -18356,7 +18356,7 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.77</v>
@@ -18574,10 +18574,10 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR83" t="n">
         <v>1.76</v>
@@ -18795,7 +18795,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR84" t="n">
         <v>1.59</v>
@@ -19010,7 +19010,7 @@
         <v>1.4</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.85</v>
@@ -19231,7 +19231,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR86" t="n">
         <v>2.17</v>
@@ -19446,10 +19446,10 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR87" t="n">
         <v>1.52</v>
@@ -19664,7 +19664,7 @@
         <v>0.67</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.31</v>
@@ -21844,7 +21844,7 @@
         <v>1.67</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.43</v>
@@ -22062,10 +22062,10 @@
         <v>1.6</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR99" t="n">
         <v>1.28</v>
@@ -22280,7 +22280,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.85</v>
@@ -22498,10 +22498,10 @@
         <v>1</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR101" t="n">
         <v>1.4</v>
@@ -22716,10 +22716,10 @@
         <v>0.4</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR102" t="n">
         <v>1.76</v>
@@ -22937,7 +22937,7 @@
         <v>2</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR103" t="n">
         <v>1.58</v>
@@ -23155,7 +23155,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR104" t="n">
         <v>1.64</v>
@@ -24460,7 +24460,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.54</v>
@@ -25768,10 +25768,10 @@
         <v>0.86</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR116" t="n">
         <v>1.22</v>
@@ -25986,7 +25986,7 @@
         <v>0.33</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.15</v>
@@ -26207,7 +26207,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR118" t="n">
         <v>1.69</v>
@@ -26422,10 +26422,10 @@
         <v>2.43</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR119" t="n">
         <v>1.59</v>
@@ -26640,10 +26640,10 @@
         <v>0.8</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR120" t="n">
         <v>1.9</v>
@@ -26861,7 +26861,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR121" t="n">
         <v>1.4</v>
@@ -27076,7 +27076,7 @@
         <v>0.29</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.15</v>
@@ -27294,10 +27294,10 @@
         <v>1.71</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR123" t="n">
         <v>1.83</v>
@@ -27515,7 +27515,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR124" t="n">
         <v>1.32</v>
@@ -27733,7 +27733,7 @@
         <v>2</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR125" t="n">
         <v>1.68</v>
@@ -28384,7 +28384,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.46</v>
@@ -28605,7 +28605,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR129" t="n">
         <v>1.59</v>
@@ -29256,7 +29256,7 @@
         <v>1.63</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.69</v>
@@ -29913,7 +29913,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR135" t="n">
         <v>2.02</v>
@@ -30128,7 +30128,7 @@
         <v>0.63</v>
       </c>
       <c r="AP136" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.77</v>
@@ -30567,7 +30567,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR138" t="n">
         <v>1.56</v>
@@ -31003,7 +31003,7 @@
         <v>2</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR140" t="n">
         <v>1.8</v>
@@ -31439,7 +31439,7 @@
         <v>1</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR142" t="n">
         <v>1.46</v>
@@ -31654,10 +31654,10 @@
         <v>1.11</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR143" t="n">
         <v>1.83</v>
@@ -32090,7 +32090,7 @@
         <v>1.5</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.54</v>
@@ -32962,7 +32962,7 @@
         <v>0.67</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.77</v>
@@ -33180,7 +33180,7 @@
         <v>1</v>
       </c>
       <c r="AP150" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ150" t="n">
         <v>0.92</v>
@@ -33398,7 +33398,7 @@
         <v>0.78</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.31</v>
@@ -33616,7 +33616,7 @@
         <v>1.11</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ152" t="n">
         <v>1</v>
@@ -33837,7 +33837,7 @@
         <v>2</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR153" t="n">
         <v>1.46</v>
@@ -34055,7 +34055,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR154" t="n">
         <v>2.01</v>
@@ -34273,7 +34273,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR155" t="n">
         <v>1.47</v>
@@ -34491,7 +34491,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR156" t="n">
         <v>1.61</v>
@@ -35360,7 +35360,7 @@
         <v>1.33</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.46</v>
@@ -35581,7 +35581,7 @@
         <v>1</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR161" t="n">
         <v>1.42</v>
@@ -36014,7 +36014,7 @@
         <v>0.8</v>
       </c>
       <c r="AP163" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.85</v>
@@ -36450,7 +36450,7 @@
         <v>1.7</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.77</v>
@@ -36886,7 +36886,7 @@
         <v>0.9</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ167" t="n">
         <v>0.92</v>
@@ -37107,7 +37107,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR168" t="n">
         <v>1.9</v>
@@ -37322,10 +37322,10 @@
         <v>0.44</v>
       </c>
       <c r="AP169" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR169" t="n">
         <v>1.87</v>
@@ -37543,7 +37543,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR170" t="n">
         <v>1.42</v>
@@ -37976,7 +37976,7 @@
         <v>0.6</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.77</v>
@@ -38415,7 +38415,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR174" t="n">
         <v>1.43</v>
@@ -38633,7 +38633,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR175" t="n">
         <v>1.98</v>
@@ -39284,7 +39284,7 @@
         <v>1.55</v>
       </c>
       <c r="AP178" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.43</v>
@@ -39720,7 +39720,7 @@
         <v>1</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.85</v>
@@ -39938,10 +39938,10 @@
         <v>1.45</v>
       </c>
       <c r="AP181" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR181" t="n">
         <v>1.89</v>
@@ -40595,7 +40595,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR184" t="n">
         <v>1.6</v>
@@ -40810,10 +40810,10 @@
         <v>1.73</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR185" t="n">
         <v>1.69</v>
@@ -42118,7 +42118,7 @@
         <v>1.73</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.54</v>
@@ -42339,7 +42339,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ192" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR192" t="n">
         <v>1.86</v>
@@ -42557,7 +42557,7 @@
         <v>2</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR193" t="n">
         <v>1.5</v>
@@ -42990,7 +42990,7 @@
         <v>1.67</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.43</v>
@@ -43211,7 +43211,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR196" t="n">
         <v>1.45</v>
@@ -43426,10 +43426,10 @@
         <v>0.33</v>
       </c>
       <c r="AP197" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR197" t="n">
         <v>1.3</v>
@@ -43644,7 +43644,7 @@
         <v>1.17</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.31</v>
@@ -43862,7 +43862,7 @@
         <v>1.67</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ199" t="n">
         <v>1.77</v>
@@ -44080,10 +44080,10 @@
         <v>1.08</v>
       </c>
       <c r="AP200" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR200" t="n">
         <v>1.82</v>
@@ -44301,7 +44301,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR201" t="n">
         <v>1.91</v>
@@ -45827,7 +45827,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR208" t="n">
         <v>1.65</v>
@@ -46284,13 +46284,13 @@
         <v>10</v>
       </c>
       <c r="AX210" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY210" t="n">
         <v>15</v>
       </c>
       <c r="AZ210" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA210" t="n">
         <v>10</v>
@@ -46339,6 +46339,1096 @@
       </c>
       <c r="BP210" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>8205650</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>46067.39583333334</v>
+      </c>
+      <c r="F211" t="n">
+        <v>27</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Metaloglobus</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Oţelul Galaţi</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>7</v>
+      </c>
+      <c r="R211" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S211" t="n">
+        <v>2</v>
+      </c>
+      <c r="T211" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V211" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X211" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL211" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM211" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BN211" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO211" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BP211" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>8205624</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>46067.58333333334</v>
+      </c>
+      <c r="F212" t="n">
+        <v>27</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Csikszereda</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>4</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>4</v>
+      </c>
+      <c r="L212" t="n">
+        <v>4</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>5</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['25', '32', '36', '39']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R212" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S212" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V212" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X212" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL212" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BM212" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN212" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO212" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP212" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>8205730</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>46068.375</v>
+      </c>
+      <c r="F213" t="n">
+        <v>27</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="n">
+        <v>2</v>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="n">
+        <v>3</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['22', '90']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="R213" t="n">
+        <v>2</v>
+      </c>
+      <c r="S213" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T213" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V213" t="n">
+        <v>3</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X213" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BL213" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM213" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BN213" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO213" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BP213" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>8205729</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>46068.5</v>
+      </c>
+      <c r="F214" t="n">
+        <v>27</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>2</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="n">
+        <v>3</v>
+      </c>
+      <c r="L214" t="n">
+        <v>3</v>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="n">
+        <v>4</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['19', '45+4', '53']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="R214" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S214" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T214" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U214" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V214" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X214" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL214" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM214" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN214" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO214" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP214" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>8205599</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>46068.625</v>
+      </c>
+      <c r="F215" t="n">
+        <v>27</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R215" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S215" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="T215" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V215" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X215" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BL215" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM215" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN215" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO215" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BP215" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP215"/>
+  <dimension ref="A1:BP217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,7 +2009,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.15</v>
@@ -3753,7 +3753,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.14</v>
@@ -5715,7 +5715,7 @@
         <v>2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR24" t="n">
         <v>1.17</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.36</v>
@@ -7020,7 +7020,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.69</v>
@@ -8767,7 +8767,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR38" t="n">
         <v>1.72</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.46</v>
@@ -11165,7 +11165,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR49" t="n">
         <v>1.71</v>
@@ -12037,7 +12037,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR53" t="n">
         <v>1.43</v>
@@ -12688,7 +12688,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.92</v>
@@ -13342,7 +13342,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.77</v>
@@ -15089,7 +15089,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR67" t="n">
         <v>1.66</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR71" t="n">
         <v>1.47</v>
@@ -17920,7 +17920,7 @@
         <v>0.8</v>
       </c>
       <c r="AP80" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.92</v>
@@ -18138,7 +18138,7 @@
         <v>1.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.43</v>
@@ -19013,7 +19013,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR85" t="n">
         <v>1.78</v>
@@ -19667,7 +19667,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR88" t="n">
         <v>1.3</v>
@@ -21629,7 +21629,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR97" t="n">
         <v>1.43</v>
@@ -22283,7 +22283,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR100" t="n">
         <v>1.59</v>
@@ -22934,7 +22934,7 @@
         <v>2.33</v>
       </c>
       <c r="AP103" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.79</v>
@@ -23152,7 +23152,7 @@
         <v>0.25</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.5</v>
@@ -23373,7 +23373,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR105" t="n">
         <v>1.49</v>
@@ -25117,7 +25117,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR113" t="n">
         <v>1.59</v>
@@ -25332,10 +25332,10 @@
         <v>0.67</v>
       </c>
       <c r="AP114" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR114" t="n">
         <v>1.67</v>
@@ -26204,7 +26204,7 @@
         <v>0.83</v>
       </c>
       <c r="AP118" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.14</v>
@@ -27730,7 +27730,7 @@
         <v>0.67</v>
       </c>
       <c r="AP125" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.5</v>
@@ -28169,7 +28169,7 @@
         <v>1</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR127" t="n">
         <v>1.51</v>
@@ -28602,7 +28602,7 @@
         <v>1.13</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.36</v>
@@ -28823,7 +28823,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR130" t="n">
         <v>1.47</v>
@@ -30785,7 +30785,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR139" t="n">
         <v>1.5</v>
@@ -31000,7 +31000,7 @@
         <v>1.13</v>
       </c>
       <c r="AP140" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.14</v>
@@ -31218,7 +31218,7 @@
         <v>1.13</v>
       </c>
       <c r="AP141" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.46</v>
@@ -32311,7 +32311,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR146" t="n">
         <v>1.51</v>
@@ -33401,7 +33401,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR151" t="n">
         <v>1.8</v>
@@ -34924,7 +34924,7 @@
         <v>0.22</v>
       </c>
       <c r="AP158" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.15</v>
@@ -35142,7 +35142,7 @@
         <v>1.44</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.54</v>
@@ -35799,7 +35799,7 @@
         <v>2</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR162" t="n">
         <v>1.49</v>
@@ -36017,7 +36017,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR163" t="n">
         <v>1.32</v>
@@ -36668,7 +36668,7 @@
         <v>1</v>
       </c>
       <c r="AP166" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ166" t="n">
         <v>1</v>
@@ -38848,7 +38848,7 @@
         <v>1.9</v>
       </c>
       <c r="AP176" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.69</v>
@@ -39502,7 +39502,7 @@
         <v>1.55</v>
       </c>
       <c r="AP179" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.77</v>
@@ -39723,7 +39723,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR180" t="n">
         <v>1.2</v>
@@ -40377,7 +40377,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR183" t="n">
         <v>1.84</v>
@@ -41246,7 +41246,7 @@
         <v>1</v>
       </c>
       <c r="AP187" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ187" t="n">
         <v>1</v>
@@ -42775,7 +42775,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ194" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR194" t="n">
         <v>1.38</v>
@@ -43208,7 +43208,7 @@
         <v>1.83</v>
       </c>
       <c r="AP196" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ196" t="n">
         <v>1.79</v>
@@ -43647,7 +43647,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR198" t="n">
         <v>1.68</v>
@@ -46042,7 +46042,7 @@
         <v>1.58</v>
       </c>
       <c r="AP209" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.54</v>
@@ -47429,6 +47429,442 @@
       </c>
       <c r="BP215" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>8205598</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>46069.5</v>
+      </c>
+      <c r="F216" t="n">
+        <v>27</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="R216" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S216" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T216" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V216" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X216" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BL216" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM216" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BN216" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO216" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="BP216" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>8205597</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>46069.625</v>
+      </c>
+      <c r="F217" t="n">
+        <v>27</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Dinamo Bucureşti</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R217" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S217" t="n">
+        <v>9</v>
+      </c>
+      <c r="T217" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U217" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="V217" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X217" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>31</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BL217" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM217" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN217" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO217" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BP217" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -47156,13 +47156,13 @@
         <v>8</v>
       </c>
       <c r="AX214" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY214" t="n">
         <v>13</v>
       </c>
       <c r="AZ214" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA214" t="n">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.79</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.92</v>
@@ -3099,7 +3099,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR18" t="n">
         <v>1.25</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.43</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.77</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.79</v>
@@ -5933,7 +5933,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR25" t="n">
         <v>0.83</v>
@@ -6369,7 +6369,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR27" t="n">
         <v>1.18</v>
@@ -7023,7 +7023,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR30" t="n">
         <v>1.79</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.54</v>
@@ -8331,7 +8331,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR36" t="n">
         <v>2.47</v>
@@ -8982,7 +8982,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.43</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.79</v>
@@ -9639,7 +9639,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR42" t="n">
         <v>1.48</v>
@@ -10290,7 +10290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.14</v>
@@ -10947,7 +10947,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR48" t="n">
         <v>1.49</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.5</v>
@@ -12034,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.43</v>
@@ -12255,7 +12255,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR54" t="n">
         <v>1.49</v>
@@ -12909,7 +12909,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR57" t="n">
         <v>1.73</v>
@@ -13127,7 +13127,7 @@
         <v>1</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR58" t="n">
         <v>2.09</v>
@@ -13778,7 +13778,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.54</v>
@@ -13996,7 +13996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.36</v>
@@ -14435,7 +14435,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR64" t="n">
         <v>1.84</v>
@@ -15304,7 +15304,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.14</v>
@@ -16394,7 +16394,7 @@
         <v>1.2</v>
       </c>
       <c r="AP73" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.36</v>
@@ -16615,7 +16615,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR74" t="n">
         <v>1.63</v>
@@ -16830,7 +16830,7 @@
         <v>2</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.54</v>
@@ -17051,7 +17051,7 @@
         <v>1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR76" t="n">
         <v>1.86</v>
@@ -17266,10 +17266,10 @@
         <v>1.25</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR77" t="n">
         <v>1.94</v>
@@ -20103,7 +20103,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR90" t="n">
         <v>1.47</v>
@@ -20321,7 +20321,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR91" t="n">
         <v>1.6</v>
@@ -20754,7 +20754,7 @@
         <v>0.83</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.77</v>
@@ -21190,7 +21190,7 @@
         <v>0.4</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.15</v>
@@ -21408,10 +21408,10 @@
         <v>1.2</v>
       </c>
       <c r="AP96" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR96" t="n">
         <v>1.45</v>
@@ -23591,7 +23591,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR106" t="n">
         <v>1.46</v>
@@ -24024,10 +24024,10 @@
         <v>1.43</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR108" t="n">
         <v>1.5</v>
@@ -24242,7 +24242,7 @@
         <v>0.71</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.92</v>
@@ -24681,7 +24681,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR111" t="n">
         <v>1.95</v>
@@ -24896,7 +24896,7 @@
         <v>0.71</v>
       </c>
       <c r="AP112" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.77</v>
@@ -28387,7 +28387,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR128" t="n">
         <v>1.73</v>
@@ -29259,7 +29259,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR132" t="n">
         <v>1.68</v>
@@ -29477,7 +29477,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR133" t="n">
         <v>2.06</v>
@@ -29692,7 +29692,7 @@
         <v>1</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.92</v>
@@ -29910,7 +29910,7 @@
         <v>2.25</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.79</v>
@@ -30346,7 +30346,7 @@
         <v>1.88</v>
       </c>
       <c r="AP137" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.77</v>
@@ -31221,7 +31221,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR141" t="n">
         <v>1.53</v>
@@ -32308,7 +32308,7 @@
         <v>0.89</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.79</v>
@@ -33619,7 +33619,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR152" t="n">
         <v>1.66</v>
@@ -33834,7 +33834,7 @@
         <v>2</v>
       </c>
       <c r="AP153" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.79</v>
@@ -34052,7 +34052,7 @@
         <v>0.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.5</v>
@@ -34709,7 +34709,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR157" t="n">
         <v>1.41</v>
@@ -35363,7 +35363,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR160" t="n">
         <v>1.79</v>
@@ -35796,7 +35796,7 @@
         <v>0.8</v>
       </c>
       <c r="AP162" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.43</v>
@@ -36232,7 +36232,7 @@
         <v>1.7</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.43</v>
@@ -36671,7 +36671,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR166" t="n">
         <v>1.45</v>
@@ -37761,7 +37761,7 @@
         <v>1</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR171" t="n">
         <v>1.32</v>
@@ -38630,7 +38630,7 @@
         <v>1.2</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.14</v>
@@ -38851,7 +38851,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR176" t="n">
         <v>1.71</v>
@@ -40592,7 +40592,7 @@
         <v>0.4</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ184" t="n">
         <v>0.5</v>
@@ -41028,7 +41028,7 @@
         <v>0.18</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ186" t="n">
         <v>0.15</v>
@@ -41249,7 +41249,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR187" t="n">
         <v>1.8</v>
@@ -41685,7 +41685,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR189" t="n">
         <v>1.38</v>
@@ -41903,7 +41903,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR190" t="n">
         <v>1.64</v>
@@ -42554,7 +42554,7 @@
         <v>1.09</v>
       </c>
       <c r="AP193" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ193" t="n">
         <v>1.14</v>
@@ -44737,7 +44737,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR203" t="n">
         <v>1.65</v>
@@ -45173,7 +45173,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR205" t="n">
         <v>1.4</v>
@@ -45388,10 +45388,10 @@
         <v>1.83</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR206" t="n">
         <v>1.96</v>
@@ -45606,7 +45606,7 @@
         <v>0.17</v>
       </c>
       <c r="AP207" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.15</v>
@@ -45824,7 +45824,7 @@
         <v>1.33</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ208" t="n">
         <v>1.36</v>
@@ -47865,6 +47865,660 @@
       </c>
       <c r="BP217" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>8205600</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>46073.5</v>
+      </c>
+      <c r="F218" t="n">
+        <v>28</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Oţelul Galaţi</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>2</v>
+      </c>
+      <c r="K218" t="n">
+        <v>3</v>
+      </c>
+      <c r="L218" t="n">
+        <v>2</v>
+      </c>
+      <c r="M218" t="n">
+        <v>2</v>
+      </c>
+      <c r="N218" t="n">
+        <v>4</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['40', '56']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['11', '15']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="R218" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S218" t="n">
+        <v>4</v>
+      </c>
+      <c r="T218" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V218" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X218" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BL218" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BN218" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO218" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="BP218" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>8205732</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>46073.625</v>
+      </c>
+      <c r="F219" t="n">
+        <v>28</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>2</v>
+      </c>
+      <c r="K219" t="n">
+        <v>3</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="n">
+        <v>3</v>
+      </c>
+      <c r="N219" t="n">
+        <v>4</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['4', '14', '55']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S219" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T219" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V219" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X219" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL219" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM219" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN219" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO219" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP219" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>8205731</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>46074.54166666666</v>
+      </c>
+      <c r="F220" t="n">
+        <v>28</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>2</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="n">
+        <v>3</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['62', '81']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R220" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S220" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T220" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="V220" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X220" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BL220" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM220" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN220" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO220" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP220" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP220"/>
+  <dimension ref="A1:BP221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,7 +2445,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.43</v>
@@ -5497,7 +5497,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR23" t="n">
         <v>1.2</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.14</v>
@@ -7895,7 +7895,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR34" t="n">
         <v>1.69</v>
@@ -10508,7 +10508,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.36</v>
@@ -11819,7 +11819,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR52" t="n">
         <v>1.67</v>
@@ -12906,7 +12906,7 @@
         <v>1.67</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.43</v>
@@ -16179,7 +16179,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR72" t="n">
         <v>1.67</v>
@@ -17484,7 +17484,7 @@
         <v>0.4</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.77</v>
@@ -18359,7 +18359,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR82" t="n">
         <v>1.62</v>
@@ -19885,7 +19885,7 @@
         <v>1</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR89" t="n">
         <v>1.79</v>
@@ -20536,7 +20536,7 @@
         <v>0.83</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.92</v>
@@ -23809,7 +23809,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR107" t="n">
         <v>1.62</v>
@@ -25114,7 +25114,7 @@
         <v>1.14</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.79</v>
@@ -27948,7 +27948,7 @@
         <v>1.75</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.43</v>
@@ -30349,7 +30349,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR137" t="n">
         <v>1.46</v>
@@ -30564,7 +30564,7 @@
         <v>0.57</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.5</v>
@@ -32747,7 +32747,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR148" t="n">
         <v>2.03</v>
@@ -34488,7 +34488,7 @@
         <v>1</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.14</v>
@@ -36453,7 +36453,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR165" t="n">
         <v>1.68</v>
@@ -38194,7 +38194,7 @@
         <v>0.2</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ173" t="n">
         <v>0.15</v>
@@ -39505,7 +39505,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR179" t="n">
         <v>1.49</v>
@@ -41900,7 +41900,7 @@
         <v>1.73</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.79</v>
@@ -43865,7 +43865,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR199" t="n">
         <v>1.69</v>
@@ -44734,7 +44734,7 @@
         <v>1</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ203" t="n">
         <v>0.93</v>
@@ -48519,6 +48519,224 @@
       </c>
       <c r="BP220" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>8205657</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>46074.64583333334</v>
+      </c>
+      <c r="F221" t="n">
+        <v>28</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Dinamo Bucureşti</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>2</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>2</v>
+      </c>
+      <c r="L221" t="n">
+        <v>2</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="n">
+        <v>3</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['30', '34']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="R221" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S221" t="n">
+        <v>3</v>
+      </c>
+      <c r="T221" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V221" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X221" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL221" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM221" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BN221" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO221" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP221" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP221"/>
+  <dimension ref="A1:BP223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.79</v>
@@ -1355,7 +1355,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.5</v>
@@ -5061,7 +5061,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR21" t="n">
         <v>2.49</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.5</v>
@@ -7241,7 +7241,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR31" t="n">
         <v>1.28</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.14</v>
@@ -8113,7 +8113,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR35" t="n">
         <v>1.63</v>
@@ -9418,7 +9418,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.15</v>
@@ -10075,7 +10075,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR44" t="n">
         <v>1.34</v>
@@ -10726,7 +10726,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.14</v>
@@ -12691,7 +12691,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR56" t="n">
         <v>1.67</v>
@@ -13124,7 +13124,7 @@
         <v>1.75</v>
       </c>
       <c r="AP58" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.79</v>
@@ -13560,7 +13560,7 @@
         <v>0.33</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.15</v>
@@ -13781,7 +13781,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR61" t="n">
         <v>1.38</v>
@@ -15525,7 +15525,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR69" t="n">
         <v>1.64</v>
@@ -16612,7 +16612,7 @@
         <v>2</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.79</v>
@@ -16833,7 +16833,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR75" t="n">
         <v>1.53</v>
@@ -17048,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.93</v>
@@ -17923,7 +17923,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR80" t="n">
         <v>1.69</v>
@@ -19882,7 +19882,7 @@
         <v>1.83</v>
       </c>
       <c r="AP89" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.64</v>
@@ -20318,7 +20318,7 @@
         <v>0.83</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.93</v>
@@ -20539,7 +20539,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR92" t="n">
         <v>1.65</v>
@@ -20975,7 +20975,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR94" t="n">
         <v>2.04</v>
@@ -23806,7 +23806,7 @@
         <v>2</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.64</v>
@@ -24245,7 +24245,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR109" t="n">
         <v>1.91</v>
@@ -24463,7 +24463,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR110" t="n">
         <v>1.32</v>
@@ -25550,7 +25550,7 @@
         <v>1.57</v>
       </c>
       <c r="AP115" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.43</v>
@@ -28166,7 +28166,7 @@
         <v>0.57</v>
       </c>
       <c r="AP127" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.43</v>
@@ -29038,10 +29038,10 @@
         <v>1.29</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR131" t="n">
         <v>1.5</v>
@@ -29695,7 +29695,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR134" t="n">
         <v>1.46</v>
@@ -30782,7 +30782,7 @@
         <v>0.88</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.43</v>
@@ -31436,7 +31436,7 @@
         <v>1.5</v>
       </c>
       <c r="AP142" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.14</v>
@@ -32093,7 +32093,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR145" t="n">
         <v>1.24</v>
@@ -33183,7 +33183,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR150" t="n">
         <v>1.26</v>
@@ -34270,7 +34270,7 @@
         <v>1.67</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.14</v>
@@ -35145,7 +35145,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR159" t="n">
         <v>1.47</v>
@@ -35578,7 +35578,7 @@
         <v>1.3</v>
       </c>
       <c r="AP161" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.36</v>
@@ -36889,7 +36889,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR167" t="n">
         <v>1.17</v>
@@ -37540,7 +37540,7 @@
         <v>1.45</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.36</v>
@@ -37758,7 +37758,7 @@
         <v>1.3</v>
       </c>
       <c r="AP171" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.43</v>
@@ -39069,7 +39069,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR177" t="n">
         <v>1.37</v>
@@ -40159,7 +40159,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR182" t="n">
         <v>1.34</v>
@@ -41464,7 +41464,7 @@
         <v>0.64</v>
       </c>
       <c r="AP188" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ188" t="n">
         <v>0.77</v>
@@ -41682,7 +41682,7 @@
         <v>1.45</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.43</v>
@@ -42121,7 +42121,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR191" t="n">
         <v>1.75</v>
@@ -44516,7 +44516,7 @@
         <v>0.83</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ202" t="n">
         <v>0.77</v>
@@ -44952,10 +44952,10 @@
         <v>1</v>
       </c>
       <c r="AP204" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR204" t="n">
         <v>1.28</v>
@@ -46045,7 +46045,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR209" t="n">
         <v>1.83</v>
@@ -48737,6 +48737,442 @@
       </c>
       <c r="BP221" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>8205627</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>46075.41666666666</v>
+      </c>
+      <c r="F222" t="n">
+        <v>28</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R222" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S222" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V222" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X222" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL222" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM222" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN222" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO222" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BP222" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>8205653</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>46075.625</v>
+      </c>
+      <c r="F223" t="n">
+        <v>28</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>3</v>
+      </c>
+      <c r="N223" t="n">
+        <v>3</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['29', '59', '64']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>7</v>
+      </c>
+      <c r="R223" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S223" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="V223" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X223" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL223" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM223" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN223" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO223" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BP223" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP223"/>
+  <dimension ref="A1:BP225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.64</v>
@@ -2663,7 +2663,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.79</v>
@@ -4843,7 +4843,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR20" t="n">
         <v>2.17</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.86</v>
@@ -6151,7 +6151,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR26" t="n">
         <v>1.02</v>
@@ -8549,7 +8549,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR37" t="n">
         <v>1.59</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.79</v>
@@ -9421,7 +9421,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR41" t="n">
         <v>2.34</v>
@@ -9857,7 +9857,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR43" t="n">
         <v>1.76</v>
@@ -10072,7 +10072,7 @@
         <v>2</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.64</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.43</v>
@@ -13345,7 +13345,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR59" t="n">
         <v>1.65</v>
@@ -13563,7 +13563,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR60" t="n">
         <v>1.5</v>
@@ -14214,7 +14214,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.14</v>
@@ -15740,7 +15740,7 @@
         <v>1.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.36</v>
@@ -17487,7 +17487,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR78" t="n">
         <v>1.64</v>
@@ -17702,10 +17702,10 @@
         <v>0.25</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR79" t="n">
         <v>1.4</v>
@@ -19228,7 +19228,7 @@
         <v>0.5</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.14</v>
@@ -20100,7 +20100,7 @@
         <v>1.67</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.79</v>
@@ -20757,7 +20757,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR93" t="n">
         <v>1.89</v>
@@ -20972,7 +20972,7 @@
         <v>1.6</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.64</v>
@@ -21193,7 +21193,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR95" t="n">
         <v>1.43</v>
@@ -21626,7 +21626,7 @@
         <v>0.75</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.43</v>
@@ -23588,7 +23588,7 @@
         <v>1.14</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.93</v>
@@ -24678,7 +24678,7 @@
         <v>1</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.43</v>
@@ -24899,7 +24899,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR112" t="n">
         <v>1.44</v>
@@ -25989,7 +25989,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR117" t="n">
         <v>1.68</v>
@@ -27079,7 +27079,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR122" t="n">
         <v>1.16</v>
@@ -28820,7 +28820,7 @@
         <v>1</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ130" t="n">
         <v>0.79</v>
@@ -29474,7 +29474,7 @@
         <v>1.13</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.93</v>
@@ -30131,7 +30131,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR136" t="n">
         <v>1.22</v>
@@ -31875,7 +31875,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR144" t="n">
         <v>1.33</v>
@@ -32526,7 +32526,7 @@
         <v>1.56</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.43</v>
@@ -32744,7 +32744,7 @@
         <v>1.78</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.64</v>
@@ -32965,7 +32965,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR149" t="n">
         <v>1.15</v>
@@ -34927,7 +34927,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR158" t="n">
         <v>1.67</v>
@@ -37104,7 +37104,7 @@
         <v>1.9</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.79</v>
@@ -37979,7 +37979,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR172" t="n">
         <v>1.77</v>
@@ -38197,7 +38197,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR173" t="n">
         <v>1.61</v>
@@ -38412,7 +38412,7 @@
         <v>1.6</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.14</v>
@@ -40374,7 +40374,7 @@
         <v>1</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.43</v>
@@ -41031,7 +41031,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ186" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR186" t="n">
         <v>1.91</v>
@@ -41467,7 +41467,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR188" t="n">
         <v>1.3</v>
@@ -42336,7 +42336,7 @@
         <v>0.36</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ192" t="n">
         <v>0.5</v>
@@ -44298,7 +44298,7 @@
         <v>1.33</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.14</v>
@@ -44519,7 +44519,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ202" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR202" t="n">
         <v>1.34</v>
@@ -45170,7 +45170,7 @@
         <v>1.58</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.43</v>
@@ -45609,7 +45609,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR207" t="n">
         <v>1.57</v>
@@ -49173,6 +49173,442 @@
       </c>
       <c r="BP223" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>8205662</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>46076.5</v>
+      </c>
+      <c r="F224" t="n">
+        <v>28</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Csikszereda</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>2</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" t="n">
+        <v>3</v>
+      </c>
+      <c r="L224" t="n">
+        <v>2</v>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="n">
+        <v>3</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['17', '38']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="R224" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S224" t="n">
+        <v>3</v>
+      </c>
+      <c r="T224" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V224" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X224" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BL224" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM224" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BN224" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO224" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="BP224" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>8205733</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>46076.625</v>
+      </c>
+      <c r="F225" t="n">
+        <v>28</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Metaloglobus</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>2</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="n">
+        <v>3</v>
+      </c>
+      <c r="L225" t="n">
+        <v>4</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="n">
+        <v>5</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['6', '26', '51', '79']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R225" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S225" t="n">
+        <v>11</v>
+      </c>
+      <c r="T225" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U225" t="n">
+        <v>4</v>
+      </c>
+      <c r="V225" t="n">
+        <v>2</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X225" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>19</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL225" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BM225" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN225" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO225" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP225" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -49333,13 +49333,13 @@
         <v>2</v>
       </c>
       <c r="AW224" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX224" t="n">
         <v>10</v>
       </c>
       <c r="AY224" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ224" t="n">
         <v>12</v>
@@ -49554,13 +49554,13 @@
         <v>18</v>
       </c>
       <c r="AX225" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY225" t="n">
         <v>29</v>
       </c>
       <c r="AZ225" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA225" t="n">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Romania Liga I_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP225"/>
+  <dimension ref="A1:BP228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.43</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.43</v>
@@ -3535,7 +3535,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.79</v>
@@ -6151,7 +6151,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR26" t="n">
         <v>1.02</v>
@@ -7020,7 +7020,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.79</v>
@@ -7459,7 +7459,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR32" t="n">
         <v>2.42</v>
@@ -7677,7 +7677,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR33" t="n">
         <v>2.3</v>
@@ -8328,7 +8328,7 @@
         <v>2</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.93</v>
@@ -8546,7 +8546,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.71</v>
@@ -9421,7 +9421,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR41" t="n">
         <v>2.34</v>
@@ -10293,7 +10293,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR45" t="n">
         <v>1.68</v>
@@ -10729,7 +10729,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR47" t="n">
         <v>1.39</v>
@@ -11816,7 +11816,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.64</v>
@@ -12252,7 +12252,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.93</v>
@@ -12688,7 +12688,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.86</v>
@@ -13563,7 +13563,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR60" t="n">
         <v>1.5</v>
@@ -14217,7 +14217,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR63" t="n">
         <v>1.4</v>
@@ -14650,7 +14650,7 @@
         <v>2.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.79</v>
@@ -15307,7 +15307,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR68" t="n">
         <v>1.4</v>
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.86</v>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.79</v>
@@ -17705,7 +17705,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR79" t="n">
         <v>1.4</v>
@@ -18138,7 +18138,7 @@
         <v>1.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.43</v>
@@ -18356,7 +18356,7 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.64</v>
@@ -19231,7 +19231,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR86" t="n">
         <v>2.17</v>
@@ -19449,7 +19449,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR87" t="n">
         <v>1.52</v>
@@ -19664,7 +19664,7 @@
         <v>0.67</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.43</v>
@@ -21193,7 +21193,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR95" t="n">
         <v>1.43</v>
@@ -22062,10 +22062,10 @@
         <v>1.6</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR99" t="n">
         <v>1.28</v>
@@ -22280,7 +22280,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.79</v>
@@ -22719,7 +22719,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR102" t="n">
         <v>1.76</v>
@@ -23152,7 +23152,7 @@
         <v>0.25</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.5</v>
@@ -25768,7 +25768,7 @@
         <v>0.86</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.36</v>
@@ -25989,7 +25989,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR117" t="n">
         <v>1.68</v>
@@ -26204,10 +26204,10 @@
         <v>0.83</v>
       </c>
       <c r="AP118" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR118" t="n">
         <v>1.69</v>
@@ -26422,7 +26422,7 @@
         <v>2.43</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.79</v>
@@ -26861,7 +26861,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR121" t="n">
         <v>1.4</v>
@@ -27076,10 +27076,10 @@
         <v>0.29</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR122" t="n">
         <v>1.16</v>
@@ -27297,7 +27297,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR123" t="n">
         <v>1.83</v>
@@ -27515,7 +27515,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR124" t="n">
         <v>1.32</v>
@@ -28384,7 +28384,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.43</v>
@@ -28602,7 +28602,7 @@
         <v>1.13</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.36</v>
@@ -31003,7 +31003,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR140" t="n">
         <v>1.8</v>
@@ -31218,7 +31218,7 @@
         <v>1.13</v>
       </c>
       <c r="AP141" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.43</v>
@@ -31439,7 +31439,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR142" t="n">
         <v>1.46</v>
@@ -31875,7 +31875,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR144" t="n">
         <v>1.33</v>
@@ -32090,7 +32090,7 @@
         <v>1.5</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.64</v>
@@ -32962,7 +32962,7 @@
         <v>0.67</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.71</v>
@@ -33398,7 +33398,7 @@
         <v>0.78</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.43</v>
@@ -34273,7 +34273,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR155" t="n">
         <v>1.47</v>
@@ -34491,7 +34491,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR156" t="n">
         <v>1.61</v>
@@ -34927,7 +34927,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR158" t="n">
         <v>1.67</v>
@@ -35142,7 +35142,7 @@
         <v>1.44</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.64</v>
@@ -36668,7 +36668,7 @@
         <v>1</v>
       </c>
       <c r="AP166" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ166" t="n">
         <v>0.93</v>
@@ -36886,7 +36886,7 @@
         <v>0.9</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ167" t="n">
         <v>0.86</v>
@@ -37322,7 +37322,7 @@
         <v>0.44</v>
       </c>
       <c r="AP169" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ169" t="n">
         <v>0.5</v>
@@ -38197,7 +38197,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR173" t="n">
         <v>1.61</v>
@@ -38415,7 +38415,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR174" t="n">
         <v>1.43</v>
@@ -38633,7 +38633,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR175" t="n">
         <v>1.98</v>
@@ -39502,7 +39502,7 @@
         <v>1.55</v>
       </c>
       <c r="AP179" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.64</v>
@@ -39720,7 +39720,7 @@
         <v>1</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.79</v>
@@ -39938,10 +39938,10 @@
         <v>1.45</v>
       </c>
       <c r="AP181" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR181" t="n">
         <v>1.89</v>
@@ -41031,7 +41031,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ186" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR186" t="n">
         <v>1.91</v>
@@ -42557,7 +42557,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR193" t="n">
         <v>1.5</v>
@@ -42990,7 +42990,7 @@
         <v>1.67</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.43</v>
@@ -43208,7 +43208,7 @@
         <v>1.83</v>
       </c>
       <c r="AP196" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ196" t="n">
         <v>1.79</v>
@@ -44080,10 +44080,10 @@
         <v>1.08</v>
       </c>
       <c r="AP200" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR200" t="n">
         <v>1.82</v>
@@ -44301,7 +44301,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR201" t="n">
         <v>1.91</v>
@@ -45609,7 +45609,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR207" t="n">
         <v>1.57</v>
@@ -46481,7 +46481,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR211" t="n">
         <v>1.33</v>
@@ -46696,7 +46696,7 @@
         <v>0.54</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ212" t="n">
         <v>0.5</v>
@@ -46917,7 +46917,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR213" t="n">
         <v>1.63</v>
@@ -47350,7 +47350,7 @@
         <v>1.46</v>
       </c>
       <c r="AP215" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.36</v>
@@ -47568,7 +47568,7 @@
         <v>1.31</v>
       </c>
       <c r="AP216" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ216" t="n">
         <v>1.43</v>
@@ -49533,7 +49533,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR225" t="n">
         <v>1.99</v>
@@ -49609,6 +49609,660 @@
       </c>
       <c r="BP225" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>8205736</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>46080.5</v>
+      </c>
+      <c r="F226" t="n">
+        <v>29</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>2</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>2</v>
+      </c>
+      <c r="L226" t="n">
+        <v>3</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="n">
+        <v>4</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['17', '32', '50']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="R226" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S226" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V226" t="n">
+        <v>3</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X226" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL226" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM226" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BN226" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO226" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="BP226" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>8205663</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>46080.625</v>
+      </c>
+      <c r="F227" t="n">
+        <v>29</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Oţelul Galaţi</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>2</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>2</v>
+      </c>
+      <c r="L227" t="n">
+        <v>4</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>4</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['4', '27', '70', '75']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R227" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S227" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V227" t="n">
+        <v>3</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X227" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL227" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM227" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN227" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO227" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="BP227" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>8205737</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>46081.41666666666</v>
+      </c>
+      <c r="F228" t="n">
+        <v>29</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Metaloglobus</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>2</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="n">
+        <v>3</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['49', '79']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R228" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S228" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="T228" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U228" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="V228" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X228" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL228" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN228" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>
